--- a/Data/FiinProX_DuLieuTaiChinh_BaoCaoTaiChinh_Yearly_Hop_nhat_BSR_20250219 (1).xlsx
+++ b/Data/FiinProX_DuLieuTaiChinh_BaoCaoTaiChinh_Yearly_Hop_nhat_BSR_20250219 (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Học hành\Coder\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F11ED12-8341-42F6-BEDB-231387EE4855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF28913-3216-40A3-9284-47BC11429E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E87E4DD3-D5C3-42A8-8702-67092BA61633}"/>
   </bookViews>
@@ -1756,72 +1756,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A6E518-CC9A-4BE4-A418-9F139B8E78CC}">
-  <dimension ref="A1:L139"/>
+  <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.28515625" customWidth="1"/>
+    <col min="1" max="1" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="10"/>
-      <c r="C1" s="13"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="10"/>
-      <c r="C2" s="13"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="13"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>22</v>
+      </c>
       <c r="B5" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>23</v>
@@ -1850,16 +1850,16 @@
       <c r="K5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>24</v>
       </c>
+      <c r="B6" s="16"/>
       <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="D6" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="E6" s="16" t="s">
         <v>25</v>
       </c>
@@ -1881,16 +1881,16 @@
       <c r="K6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>26</v>
       </c>
+      <c r="B7" s="16"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="D7" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="E7" s="16" t="s">
         <v>27</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H7" s="16" t="s">
         <v>28</v>
@@ -1912,399 +1912,399 @@
       <c r="K7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>29</v>
       </c>
+      <c r="B8" s="17">
+        <v>45785.779041695998</v>
+      </c>
       <c r="C8" s="17">
-        <v>45785.779041695998</v>
+        <v>26617.928855564998</v>
       </c>
       <c r="D8" s="17">
-        <v>26617.928855564998</v>
+        <v>30187.989401842999</v>
       </c>
       <c r="E8" s="17">
-        <v>30187.989401842999</v>
+        <v>31835.137192265</v>
       </c>
       <c r="F8" s="17">
-        <v>31835.137192265</v>
+        <v>24036.089036296999</v>
       </c>
       <c r="G8" s="17">
-        <v>24036.089036296999</v>
+        <v>26895.631213358</v>
       </c>
       <c r="H8" s="17">
-        <v>26895.631213358</v>
+        <v>29997.221937511</v>
       </c>
       <c r="I8" s="17">
-        <v>29997.221937511</v>
+        <v>44544.299212274003</v>
       </c>
       <c r="J8" s="17">
-        <v>44544.299212274003</v>
+        <v>58471.339394419003</v>
       </c>
       <c r="K8" s="17">
-        <v>58471.339394419003</v>
-      </c>
-      <c r="L8" s="17">
         <v>68680.527655900994</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>30</v>
       </c>
+      <c r="B9" s="17">
+        <v>25013.948058965001</v>
+      </c>
       <c r="C9" s="17">
-        <v>25013.948058965001</v>
+        <v>12861.331196548001</v>
       </c>
       <c r="D9" s="17">
-        <v>12861.331196548001</v>
+        <v>12784.487396432</v>
       </c>
       <c r="E9" s="17">
-        <v>12784.487396432</v>
+        <v>12591.057247995999</v>
       </c>
       <c r="F9" s="17">
-        <v>12591.057247995999</v>
+        <v>5762.0928843370002</v>
       </c>
       <c r="G9" s="17">
-        <v>5762.0928843370002</v>
+        <v>8352.3978774679999</v>
       </c>
       <c r="H9" s="17">
-        <v>8352.3978774679999</v>
+        <v>12792.513572897</v>
       </c>
       <c r="I9" s="17">
-        <v>12792.513572897</v>
+        <v>16345.674140133</v>
       </c>
       <c r="J9" s="17">
-        <v>16345.674140133</v>
+        <v>22853.096476348001</v>
       </c>
       <c r="K9" s="17">
-        <v>22853.096476348001</v>
-      </c>
-      <c r="L9" s="17">
         <v>17000.621246735998</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>31</v>
       </c>
+      <c r="B10" s="18">
+        <v>538.94805896499997</v>
+      </c>
       <c r="C10" s="18">
-        <v>538.94805896499997</v>
+        <v>464.38837461999998</v>
       </c>
       <c r="D10" s="18">
-        <v>464.38837461999998</v>
+        <v>819.25501947299995</v>
       </c>
       <c r="E10" s="18">
-        <v>819.25501947299995</v>
+        <v>1001.324871037</v>
       </c>
       <c r="F10" s="18">
-        <v>1001.324871037</v>
+        <v>919.36050737799997</v>
       </c>
       <c r="G10" s="18">
-        <v>919.36050737799997</v>
+        <v>392.66550050900003</v>
       </c>
       <c r="H10" s="18">
-        <v>392.66550050900003</v>
+        <v>292.781195938</v>
       </c>
       <c r="I10" s="18">
-        <v>292.781195938</v>
+        <v>387.67176317399998</v>
       </c>
       <c r="J10" s="18">
-        <v>387.67176317399998</v>
+        <v>254.09409938900001</v>
       </c>
       <c r="K10" s="18">
-        <v>254.09409938900001</v>
-      </c>
-      <c r="L10" s="18">
         <v>673.81886977700003</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
         <v>32</v>
       </c>
+      <c r="B11" s="18">
+        <v>24475</v>
+      </c>
       <c r="C11" s="18">
-        <v>24475</v>
+        <v>12396.942821928</v>
       </c>
       <c r="D11" s="18">
-        <v>12396.942821928</v>
+        <v>11965.232376959</v>
       </c>
       <c r="E11" s="18">
-        <v>11965.232376959</v>
+        <v>11589.732376959</v>
       </c>
       <c r="F11" s="18">
-        <v>11589.732376959</v>
+        <v>4842.7323769590002</v>
       </c>
       <c r="G11" s="18">
-        <v>4842.7323769590002</v>
+        <v>7959.7323769590002</v>
       </c>
       <c r="H11" s="18">
-        <v>7959.7323769590002</v>
+        <v>12499.732376959</v>
       </c>
       <c r="I11" s="18">
-        <v>12499.732376959</v>
+        <v>15958.002376959001</v>
       </c>
       <c r="J11" s="18">
-        <v>15958.002376959001</v>
+        <v>22599.002376959001</v>
       </c>
       <c r="K11" s="18">
-        <v>22599.002376959001</v>
-      </c>
-      <c r="L11" s="18">
         <v>16326.802376959</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>33</v>
       </c>
+      <c r="B12" s="17">
+        <v>4</v>
+      </c>
       <c r="C12" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" s="17">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="E12" s="17">
         <v>4.3</v>
       </c>
       <c r="F12" s="17">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="G12" s="17">
         <v>4</v>
       </c>
       <c r="H12" s="17">
+        <v>958.16601000000003</v>
+      </c>
+      <c r="I12" s="17">
+        <v>4189.5688399999999</v>
+      </c>
+      <c r="J12" s="17">
+        <v>2172.2660099999998</v>
+      </c>
+      <c r="K12" s="17">
+        <v>21121.666010000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="18">
+        <v>0</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0</v>
+      </c>
+      <c r="D13" s="18">
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18">
+        <v>0</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0</v>
+      </c>
+      <c r="I13" s="18">
+        <v>0</v>
+      </c>
+      <c r="J13" s="18">
+        <v>0</v>
+      </c>
+      <c r="K13" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="18">
+        <v>0</v>
+      </c>
+      <c r="C14" s="18">
+        <v>0</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0</v>
+      </c>
+      <c r="G14" s="18">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0</v>
+      </c>
+      <c r="I14" s="18">
+        <v>0</v>
+      </c>
+      <c r="J14" s="18">
+        <v>0</v>
+      </c>
+      <c r="K14" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="18">
         <v>4</v>
       </c>
-      <c r="I12" s="17">
-        <v>958.16601000000003</v>
-      </c>
-      <c r="J12" s="17">
-        <v>4189.5688399999999</v>
-      </c>
-      <c r="K12" s="17">
-        <v>2172.2660099999998</v>
-      </c>
-      <c r="L12" s="17">
-        <v>21121.666010000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="18">
-        <v>0</v>
-      </c>
-      <c r="D13" s="18">
-        <v>0</v>
-      </c>
-      <c r="E13" s="18">
-        <v>0</v>
-      </c>
-      <c r="F13" s="18">
-        <v>0</v>
-      </c>
-      <c r="G13" s="18">
-        <v>0</v>
-      </c>
-      <c r="H13" s="18">
-        <v>0</v>
-      </c>
-      <c r="I13" s="18">
-        <v>0</v>
-      </c>
-      <c r="J13" s="18">
-        <v>0</v>
-      </c>
-      <c r="K13" s="18">
-        <v>0</v>
-      </c>
-      <c r="L13" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="18">
-        <v>0</v>
-      </c>
-      <c r="D14" s="18">
-        <v>0</v>
-      </c>
-      <c r="E14" s="18">
-        <v>0</v>
-      </c>
-      <c r="F14" s="18">
-        <v>0</v>
-      </c>
-      <c r="G14" s="18">
-        <v>0</v>
-      </c>
-      <c r="H14" s="18">
-        <v>0</v>
-      </c>
-      <c r="I14" s="18">
-        <v>0</v>
-      </c>
-      <c r="J14" s="18">
-        <v>0</v>
-      </c>
-      <c r="K14" s="18">
-        <v>0</v>
-      </c>
-      <c r="L14" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
-        <v>36</v>
-      </c>
       <c r="C15" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" s="18">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="E15" s="18">
         <v>4.3</v>
       </c>
       <c r="F15" s="18">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="G15" s="18">
         <v>4</v>
       </c>
       <c r="H15" s="18">
-        <v>4</v>
+        <v>958.16601000000003</v>
       </c>
       <c r="I15" s="18">
-        <v>958.16601000000003</v>
+        <v>4189.5688399999999</v>
       </c>
       <c r="J15" s="18">
-        <v>4189.5688399999999</v>
+        <v>2172.2660099999998</v>
       </c>
       <c r="K15" s="18">
-        <v>2172.2660099999998</v>
-      </c>
-      <c r="L15" s="18">
         <v>21121.666010000001</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
         <v>37</v>
       </c>
+      <c r="B16" s="17">
+        <v>12837.358848182999</v>
+      </c>
       <c r="C16" s="17">
-        <v>12837.358848182999</v>
+        <v>7779.5987101029996</v>
       </c>
       <c r="D16" s="17">
-        <v>7779.5987101029996</v>
+        <v>10493.651023643</v>
       </c>
       <c r="E16" s="17">
-        <v>10493.651023643</v>
+        <v>11103.428286635</v>
       </c>
       <c r="F16" s="17">
-        <v>11103.428286635</v>
+        <v>8965.3183387219997</v>
       </c>
       <c r="G16" s="17">
-        <v>8965.3183387219997</v>
+        <v>9972.4231231560007</v>
       </c>
       <c r="H16" s="17">
-        <v>9972.4231231560007</v>
+        <v>7814.0971494949999</v>
       </c>
       <c r="I16" s="17">
-        <v>7814.0971494949999</v>
+        <v>13600.571686421999</v>
       </c>
       <c r="J16" s="17">
-        <v>13600.571686421999</v>
+        <v>16553.037481898002</v>
       </c>
       <c r="K16" s="17">
-        <v>16553.037481898002</v>
-      </c>
-      <c r="L16" s="17">
         <v>14954.714750319001</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>38</v>
       </c>
+      <c r="B17" s="18">
+        <v>12530.994961889999</v>
+      </c>
       <c r="C17" s="18">
-        <v>12530.994961889999</v>
+        <v>7249.6500803680001</v>
       </c>
       <c r="D17" s="18">
-        <v>7249.6500803680001</v>
+        <v>9749.1503600579999</v>
       </c>
       <c r="E17" s="18">
-        <v>9749.1503600579999</v>
+        <v>10756.168481544</v>
       </c>
       <c r="F17" s="18">
-        <v>10756.168481544</v>
+        <v>8740.9993996920002</v>
       </c>
       <c r="G17" s="18">
-        <v>8740.9993996920002</v>
+        <v>9754.7347924570004</v>
       </c>
       <c r="H17" s="18">
-        <v>9754.7347924570004</v>
+        <v>7634.855260194</v>
       </c>
       <c r="I17" s="18">
-        <v>7634.855260194</v>
+        <v>13251.103741666</v>
       </c>
       <c r="J17" s="18">
-        <v>13251.103741666</v>
+        <v>16097.812372261</v>
       </c>
       <c r="K17" s="18">
-        <v>16097.812372261</v>
-      </c>
-      <c r="L17" s="18">
         <v>13986.168908580999</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>39</v>
       </c>
+      <c r="B18" s="18">
+        <v>139.71871415699999</v>
+      </c>
       <c r="C18" s="18">
-        <v>139.71871415699999</v>
+        <v>431.77924583499998</v>
       </c>
       <c r="D18" s="18">
-        <v>431.77924583499998</v>
+        <v>642.578161851</v>
       </c>
       <c r="E18" s="18">
-        <v>642.578161851</v>
+        <v>277.10494660099999</v>
       </c>
       <c r="F18" s="18">
-        <v>277.10494660099999</v>
+        <v>180.86394063200001</v>
       </c>
       <c r="G18" s="18">
-        <v>180.86394063200001</v>
+        <v>160.84526723600001</v>
       </c>
       <c r="H18" s="18">
-        <v>160.84526723600001</v>
+        <v>116.44829192100001</v>
       </c>
       <c r="I18" s="18">
-        <v>116.44829192100001</v>
+        <v>250.14708808500001</v>
       </c>
       <c r="J18" s="18">
-        <v>250.14708808500001</v>
+        <v>350.15014751000001</v>
       </c>
       <c r="K18" s="18">
-        <v>350.15014751000001</v>
-      </c>
-      <c r="L18" s="18">
         <v>539.95706546500003</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="18" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
         <v>40</v>
       </c>
+      <c r="B19" s="18">
+        <v>0</v>
+      </c>
       <c r="C19" s="18">
         <v>0</v>
       </c>
@@ -2332,14 +2332,14 @@
       <c r="K19" s="18">
         <v>0</v>
       </c>
-      <c r="L19" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
         <v>41</v>
       </c>
+      <c r="B20" s="18">
+        <v>0</v>
+      </c>
       <c r="C20" s="18">
         <v>0</v>
       </c>
@@ -2367,14 +2367,14 @@
       <c r="K20" s="18">
         <v>0</v>
       </c>
-      <c r="L20" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="18" t="s">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
         <v>42</v>
       </c>
+      <c r="B21" s="18">
+        <v>0</v>
+      </c>
       <c r="C21" s="18">
         <v>0</v>
       </c>
@@ -2402,314 +2402,314 @@
       <c r="K21" s="18">
         <v>0</v>
       </c>
-      <c r="L21" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="18" t="s">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
         <v>43</v>
       </c>
+      <c r="B22" s="18">
+        <v>167.18083153800001</v>
+      </c>
       <c r="C22" s="18">
-        <v>167.18083153800001</v>
+        <v>74.624358104999999</v>
       </c>
       <c r="D22" s="18">
-        <v>74.624358104999999</v>
+        <v>89.983405662999999</v>
       </c>
       <c r="E22" s="18">
-        <v>89.983405662999999</v>
+        <v>68.195853190999998</v>
       </c>
       <c r="F22" s="18">
-        <v>68.195853190999998</v>
+        <v>37.259350804999997</v>
       </c>
       <c r="G22" s="18">
-        <v>37.259350804999997</v>
+        <v>52.817734366000003</v>
       </c>
       <c r="H22" s="18">
-        <v>52.817734366000003</v>
+        <v>59.259160457</v>
       </c>
       <c r="I22" s="18">
-        <v>59.259160457</v>
+        <v>96.987604391999994</v>
       </c>
       <c r="J22" s="18">
-        <v>96.987604391999994</v>
+        <v>105.438184824</v>
       </c>
       <c r="K22" s="18">
-        <v>105.438184824</v>
-      </c>
-      <c r="L22" s="18">
         <v>431.90199897000002</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="18" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
         <v>44</v>
       </c>
+      <c r="B23" s="18">
+        <v>-0.53689503500000002</v>
+      </c>
       <c r="C23" s="18">
-        <v>-0.53689503500000002</v>
+        <v>-0.73488891999999995</v>
       </c>
       <c r="D23" s="18">
-        <v>-0.73488891999999995</v>
+        <v>-1.082436451</v>
       </c>
       <c r="E23" s="18">
-        <v>-1.082436451</v>
+        <v>-1.1254970710000001</v>
       </c>
       <c r="F23" s="18">
-        <v>-1.1254970710000001</v>
+        <v>-0.84785692599999996</v>
       </c>
       <c r="G23" s="18">
-        <v>-0.84785692599999996</v>
+        <v>-0.88354967600000001</v>
       </c>
       <c r="H23" s="18">
-        <v>-0.88354967600000001</v>
+        <v>-0.86927257599999996</v>
       </c>
       <c r="I23" s="18">
-        <v>-0.86927257599999996</v>
+        <v>-0.36445833</v>
       </c>
       <c r="J23" s="18">
         <v>-0.36445833</v>
       </c>
       <c r="K23" s="18">
-        <v>-0.36445833</v>
-      </c>
-      <c r="L23" s="18">
         <v>-3.3144583299999999</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="18" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
         <v>45</v>
       </c>
+      <c r="B24" s="18">
+        <v>1.2356330000000001E-3</v>
+      </c>
       <c r="C24" s="18">
+        <v>24.279914715</v>
+      </c>
+      <c r="D24" s="18">
+        <v>13.021532521999999</v>
+      </c>
+      <c r="E24" s="18">
+        <v>3.08450237</v>
+      </c>
+      <c r="F24" s="18">
+        <v>7.0435045189999999</v>
+      </c>
+      <c r="G24" s="18">
+        <v>4.9088787729999996</v>
+      </c>
+      <c r="H24" s="18">
+        <v>4.4037094989999996</v>
+      </c>
+      <c r="I24" s="18">
+        <v>2.697710609</v>
+      </c>
+      <c r="J24" s="18">
         <v>1.2356330000000001E-3</v>
-      </c>
-      <c r="D24" s="18">
-        <v>24.279914715</v>
-      </c>
-      <c r="E24" s="18">
-        <v>13.021532521999999</v>
-      </c>
-      <c r="F24" s="18">
-        <v>3.08450237</v>
-      </c>
-      <c r="G24" s="18">
-        <v>7.0435045189999999</v>
-      </c>
-      <c r="H24" s="18">
-        <v>4.9088787729999996</v>
-      </c>
-      <c r="I24" s="18">
-        <v>4.4037094989999996</v>
-      </c>
-      <c r="J24" s="18">
-        <v>2.697710609</v>
       </c>
       <c r="K24" s="18">
         <v>1.2356330000000001E-3</v>
       </c>
-      <c r="L24" s="18">
-        <v>1.2356330000000001E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="17" t="s">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
         <v>46</v>
       </c>
+      <c r="B25" s="17">
+        <v>7771.8982235929998</v>
+      </c>
       <c r="C25" s="17">
-        <v>7771.8982235929998</v>
+        <v>5873.7414544140001</v>
       </c>
       <c r="D25" s="17">
-        <v>5873.7414544140001</v>
+        <v>6805.2209286309999</v>
       </c>
       <c r="E25" s="17">
-        <v>6805.2209286309999</v>
+        <v>8042.8985811929997</v>
       </c>
       <c r="F25" s="17">
-        <v>8042.8985811929997</v>
+        <v>9226.5996138600003</v>
       </c>
       <c r="G25" s="17">
-        <v>9226.5996138600003</v>
+        <v>8515.2377252450005</v>
       </c>
       <c r="H25" s="17">
-        <v>8515.2377252450005</v>
+        <v>8386.6888325939999</v>
       </c>
       <c r="I25" s="17">
-        <v>8386.6888325939999</v>
+        <v>10358.095365157</v>
       </c>
       <c r="J25" s="17">
-        <v>10358.095365157</v>
+        <v>16809.029395688001</v>
       </c>
       <c r="K25" s="17">
-        <v>16809.029395688001</v>
-      </c>
-      <c r="L25" s="17">
         <v>15530.866954976</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="18" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
         <v>47</v>
       </c>
+      <c r="B26" s="18">
+        <v>9727.7873882330005</v>
+      </c>
       <c r="C26" s="18">
-        <v>9727.7873882330005</v>
+        <v>6479.6951838510004</v>
       </c>
       <c r="D26" s="18">
-        <v>6479.6951838510004</v>
+        <v>6870.5367006759998</v>
       </c>
       <c r="E26" s="18">
-        <v>6870.5367006759998</v>
+        <v>8139.3114576890002</v>
       </c>
       <c r="F26" s="18">
-        <v>8139.3114576890002</v>
+        <v>9482.6150817489997</v>
       </c>
       <c r="G26" s="18">
-        <v>9482.6150817489997</v>
+        <v>8535.2715002259993</v>
       </c>
       <c r="H26" s="18">
-        <v>8535.2715002259993</v>
+        <v>8408.7222840680006</v>
       </c>
       <c r="I26" s="18">
-        <v>8408.7222840680006</v>
+        <v>10376.585353744</v>
       </c>
       <c r="J26" s="18">
-        <v>10376.585353744</v>
+        <v>16953.935604356</v>
       </c>
       <c r="K26" s="18">
-        <v>16953.935604356</v>
-      </c>
-      <c r="L26" s="18">
         <v>15654.603068943001</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="18" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
         <v>48</v>
       </c>
+      <c r="B27" s="18">
+        <v>-1955.88916464</v>
+      </c>
       <c r="C27" s="18">
-        <v>-1955.88916464</v>
+        <v>-605.95372943699999</v>
       </c>
       <c r="D27" s="18">
-        <v>-605.95372943699999</v>
+        <v>-65.315772045000003</v>
       </c>
       <c r="E27" s="18">
-        <v>-65.315772045000003</v>
+        <v>-96.412876495999996</v>
       </c>
       <c r="F27" s="18">
-        <v>-96.412876495999996</v>
+        <v>-256.01546788899998</v>
       </c>
       <c r="G27" s="18">
-        <v>-256.01546788899998</v>
+        <v>-20.033774981000001</v>
       </c>
       <c r="H27" s="18">
-        <v>-20.033774981000001</v>
+        <v>-22.033451474</v>
       </c>
       <c r="I27" s="18">
-        <v>-22.033451474</v>
+        <v>-18.489988586999999</v>
       </c>
       <c r="J27" s="18">
-        <v>-18.489988586999999</v>
+        <v>-144.906208668</v>
       </c>
       <c r="K27" s="18">
-        <v>-144.906208668</v>
-      </c>
-      <c r="L27" s="18">
         <v>-123.73611396699999</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
         <v>49</v>
       </c>
+      <c r="B28" s="18">
+        <v>158.573910955</v>
+      </c>
       <c r="C28" s="18">
-        <v>158.573910955</v>
+        <v>101.25749450000001</v>
       </c>
       <c r="D28" s="18">
-        <v>101.25749450000001</v>
+        <v>100.33005313699999</v>
       </c>
       <c r="E28" s="18">
-        <v>100.33005313699999</v>
+        <v>93.453076440999993</v>
       </c>
       <c r="F28" s="18">
-        <v>93.453076440999993</v>
+        <v>78.078199377999994</v>
       </c>
       <c r="G28" s="18">
-        <v>78.078199377999994</v>
+        <v>51.572487488999997</v>
       </c>
       <c r="H28" s="18">
-        <v>51.572487488999997</v>
+        <v>45.756372525000003</v>
       </c>
       <c r="I28" s="18">
-        <v>45.756372525000003</v>
+        <v>50.389180562</v>
       </c>
       <c r="J28" s="18">
-        <v>50.389180562</v>
+        <v>83.910030484999993</v>
       </c>
       <c r="K28" s="18">
-        <v>83.910030484999993</v>
-      </c>
-      <c r="L28" s="18">
         <v>72.658693869999993</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="18" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
         <v>50</v>
       </c>
+      <c r="B29" s="18">
+        <v>101.453049045</v>
+      </c>
       <c r="C29" s="18">
-        <v>101.453049045</v>
+        <v>100.20269731499999</v>
       </c>
       <c r="D29" s="18">
-        <v>100.20269731499999</v>
+        <v>94.730619340000004</v>
       </c>
       <c r="E29" s="18">
-        <v>94.730619340000004</v>
+        <v>89.891860178000002</v>
       </c>
       <c r="F29" s="18">
-        <v>89.891860178000002</v>
+        <v>17.673063902999999</v>
       </c>
       <c r="G29" s="18">
-        <v>17.673063902999999</v>
+        <v>44.866445220999999</v>
       </c>
       <c r="H29" s="18">
-        <v>44.866445220999999</v>
+        <v>39.320620505000001</v>
       </c>
       <c r="I29" s="18">
-        <v>39.320620505000001</v>
+        <v>44.655143922000001</v>
       </c>
       <c r="J29" s="18">
-        <v>44.655143922000001</v>
+        <v>78.264384464000003</v>
       </c>
       <c r="K29" s="18">
-        <v>78.264384464000003</v>
-      </c>
-      <c r="L29" s="18">
         <v>66.459619637000003</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="18" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
         <v>51</v>
       </c>
+      <c r="B30" s="18">
+        <v>12.72410979</v>
+      </c>
       <c r="C30" s="18">
-        <v>12.72410979</v>
+        <v>0.10050315</v>
       </c>
       <c r="D30" s="18">
-        <v>0.10050315</v>
+        <v>0.37105966800000001</v>
       </c>
       <c r="E30" s="18">
-        <v>0.37105966800000001</v>
+        <v>0.16476712499999999</v>
       </c>
       <c r="F30" s="18">
-        <v>0.16476712499999999</v>
+        <v>0.97048028799999997</v>
       </c>
       <c r="G30" s="18">
-        <v>0.97048028799999997</v>
+        <v>0.52145915300000001</v>
       </c>
       <c r="H30" s="18">
-        <v>0.52145915300000001</v>
+        <v>0.134026968</v>
       </c>
       <c r="I30" s="18">
-        <v>0.134026968</v>
+        <v>0</v>
       </c>
       <c r="J30" s="18">
         <v>0</v>
@@ -2717,49 +2717,49 @@
       <c r="K30" s="18">
         <v>0</v>
       </c>
-      <c r="L30" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="18" t="s">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
         <v>52</v>
       </c>
+      <c r="B31" s="18">
+        <v>44.396752120000002</v>
+      </c>
       <c r="C31" s="18">
-        <v>44.396752120000002</v>
+        <v>0.95429403499999998</v>
       </c>
       <c r="D31" s="18">
-        <v>0.95429403499999998</v>
+        <v>5.2283741289999996</v>
       </c>
       <c r="E31" s="18">
-        <v>5.2283741289999996</v>
+        <v>3.3964491379999999</v>
       </c>
       <c r="F31" s="18">
-        <v>3.3964491379999999</v>
+        <v>59.434655186999997</v>
       </c>
       <c r="G31" s="18">
-        <v>59.434655186999997</v>
+        <v>6.1845831149999997</v>
       </c>
       <c r="H31" s="18">
-        <v>6.1845831149999997</v>
+        <v>6.3017250520000001</v>
       </c>
       <c r="I31" s="18">
-        <v>6.3017250520000001</v>
+        <v>5.7340366400000002</v>
       </c>
       <c r="J31" s="18">
-        <v>5.7340366400000002</v>
+        <v>5.6456460210000001</v>
       </c>
       <c r="K31" s="18">
-        <v>5.6456460210000001</v>
-      </c>
-      <c r="L31" s="18">
         <v>6.1990742330000002</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="18" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
         <v>53</v>
       </c>
+      <c r="B32" s="18">
+        <v>0</v>
+      </c>
       <c r="C32" s="18">
         <v>0</v>
       </c>
@@ -2787,14 +2787,14 @@
       <c r="K32" s="18">
         <v>0</v>
       </c>
-      <c r="L32" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="18" t="s">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
         <v>54</v>
       </c>
+      <c r="B33" s="18">
+        <v>0</v>
+      </c>
       <c r="C33" s="18">
         <v>0</v>
       </c>
@@ -2822,49 +2822,49 @@
       <c r="K33" s="18">
         <v>0</v>
       </c>
-      <c r="L33" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="17" t="s">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
         <v>55</v>
       </c>
+      <c r="B34" s="17">
+        <v>35371.020262459002</v>
+      </c>
       <c r="C34" s="17">
-        <v>35371.020262459002</v>
+        <v>33305.781740569</v>
       </c>
       <c r="D34" s="17">
-        <v>33305.781740569</v>
+        <v>32993.392721058997</v>
       </c>
       <c r="E34" s="17">
-        <v>32993.392721058997</v>
+        <v>31425.657256385999</v>
       </c>
       <c r="F34" s="17">
-        <v>31425.657256385999</v>
+        <v>29175.515773383999</v>
       </c>
       <c r="G34" s="17">
-        <v>29175.515773383999</v>
+        <v>26688.361782700998</v>
       </c>
       <c r="H34" s="17">
-        <v>26688.361782700998</v>
+        <v>25897.712133562</v>
       </c>
       <c r="I34" s="17">
-        <v>25897.712133562</v>
+        <v>22251.363516375</v>
       </c>
       <c r="J34" s="17">
-        <v>22251.363516375</v>
+        <v>20016.589667430999</v>
       </c>
       <c r="K34" s="17">
-        <v>20016.589667430999</v>
-      </c>
-      <c r="L34" s="17">
         <v>17914.133338509</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="17" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
         <v>56</v>
       </c>
+      <c r="B35" s="17">
+        <v>0</v>
+      </c>
       <c r="C35" s="17">
         <v>0</v>
       </c>
@@ -2872,13 +2872,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="17">
-        <v>0</v>
+        <v>483.21513261699999</v>
       </c>
       <c r="F35" s="17">
-        <v>483.21513261699999</v>
+        <v>521.39582258999997</v>
       </c>
       <c r="G35" s="17">
-        <v>521.39582258999997</v>
+        <v>533.50954774900003</v>
       </c>
       <c r="H35" s="17">
         <v>533.50954774900003</v>
@@ -2887,68 +2887,68 @@
         <v>533.50954774900003</v>
       </c>
       <c r="J35" s="17">
+        <v>534.03554774899999</v>
+      </c>
+      <c r="K35" s="17">
+        <v>548.63296065700001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="18">
+        <v>0</v>
+      </c>
+      <c r="C36" s="18">
+        <v>0</v>
+      </c>
+      <c r="D36" s="18">
+        <v>0</v>
+      </c>
+      <c r="E36" s="18">
+        <v>0</v>
+      </c>
+      <c r="F36" s="18">
+        <v>0</v>
+      </c>
+      <c r="G36" s="18">
+        <v>0</v>
+      </c>
+      <c r="H36" s="18">
+        <v>0</v>
+      </c>
+      <c r="I36" s="18">
+        <v>0</v>
+      </c>
+      <c r="J36" s="18">
+        <v>0</v>
+      </c>
+      <c r="K36" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="18">
+        <v>0</v>
+      </c>
+      <c r="C37" s="18">
+        <v>0</v>
+      </c>
+      <c r="D37" s="18">
+        <v>0</v>
+      </c>
+      <c r="E37" s="18">
+        <v>483.21513261699999</v>
+      </c>
+      <c r="F37" s="18">
+        <v>521.39582258999997</v>
+      </c>
+      <c r="G37" s="18">
         <v>533.50954774900003</v>
-      </c>
-      <c r="K35" s="17">
-        <v>534.03554774899999</v>
-      </c>
-      <c r="L35" s="17">
-        <v>548.63296065700001</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="18">
-        <v>0</v>
-      </c>
-      <c r="D36" s="18">
-        <v>0</v>
-      </c>
-      <c r="E36" s="18">
-        <v>0</v>
-      </c>
-      <c r="F36" s="18">
-        <v>0</v>
-      </c>
-      <c r="G36" s="18">
-        <v>0</v>
-      </c>
-      <c r="H36" s="18">
-        <v>0</v>
-      </c>
-      <c r="I36" s="18">
-        <v>0</v>
-      </c>
-      <c r="J36" s="18">
-        <v>0</v>
-      </c>
-      <c r="K36" s="18">
-        <v>0</v>
-      </c>
-      <c r="L36" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="18">
-        <v>0</v>
-      </c>
-      <c r="D37" s="18">
-        <v>0</v>
-      </c>
-      <c r="E37" s="18">
-        <v>0</v>
-      </c>
-      <c r="F37" s="18">
-        <v>483.21513261699999</v>
-      </c>
-      <c r="G37" s="18">
-        <v>521.39582258999997</v>
       </c>
       <c r="H37" s="18">
         <v>533.50954774900003</v>
@@ -2960,16 +2960,16 @@
         <v>533.50954774900003</v>
       </c>
       <c r="K37" s="18">
-        <v>533.50954774900003</v>
-      </c>
-      <c r="L37" s="18">
         <v>548.10696065699995</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="18" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
         <v>59</v>
       </c>
+      <c r="B38" s="18">
+        <v>0</v>
+      </c>
       <c r="C38" s="18">
         <v>0</v>
       </c>
@@ -2997,14 +2997,14 @@
       <c r="K38" s="18">
         <v>0</v>
       </c>
-      <c r="L38" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="18" t="s">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
         <v>60</v>
       </c>
+      <c r="B39" s="18">
+        <v>0</v>
+      </c>
       <c r="C39" s="18">
         <v>0</v>
       </c>
@@ -3032,14 +3032,14 @@
       <c r="K39" s="18">
         <v>0</v>
       </c>
-      <c r="L39" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="18" t="s">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
         <v>61</v>
       </c>
+      <c r="B40" s="18">
+        <v>0</v>
+      </c>
       <c r="C40" s="18">
         <v>0</v>
       </c>
@@ -3067,14 +3067,14 @@
       <c r="K40" s="18">
         <v>0</v>
       </c>
-      <c r="L40" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="18" t="s">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
         <v>62</v>
       </c>
+      <c r="B41" s="18">
+        <v>0</v>
+      </c>
       <c r="C41" s="18">
         <v>0</v>
       </c>
@@ -3097,19 +3097,19 @@
         <v>0</v>
       </c>
       <c r="J41" s="18">
-        <v>0</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="K41" s="18">
         <v>0.52600000000000002</v>
       </c>
-      <c r="L41" s="18">
-        <v>0.52600000000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="18" t="s">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
         <v>63</v>
       </c>
+      <c r="B42" s="18">
+        <v>0</v>
+      </c>
       <c r="C42" s="18">
         <v>0</v>
       </c>
@@ -3137,154 +3137,154 @@
       <c r="K42" s="18">
         <v>0</v>
       </c>
-      <c r="L42" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="17" t="s">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
         <v>64</v>
       </c>
+      <c r="B43" s="17">
+        <v>34826.426029114002</v>
+      </c>
       <c r="C43" s="17">
-        <v>34826.426029114002</v>
+        <v>33005.171095812002</v>
       </c>
       <c r="D43" s="17">
-        <v>33005.171095812002</v>
+        <v>31752.177412998</v>
       </c>
       <c r="E43" s="17">
-        <v>31752.177412998</v>
+        <v>29506.556909530002</v>
       </c>
       <c r="F43" s="17">
-        <v>29506.556909530002</v>
+        <v>27305.953183639998</v>
       </c>
       <c r="G43" s="17">
-        <v>27305.953183639998</v>
+        <v>24847.509724927</v>
       </c>
       <c r="H43" s="17">
-        <v>24847.509724927</v>
+        <v>22375.534551416</v>
       </c>
       <c r="I43" s="17">
-        <v>22375.534551416</v>
+        <v>20136.092225647</v>
       </c>
       <c r="J43" s="17">
-        <v>20136.092225647</v>
+        <v>18075.350073228001</v>
       </c>
       <c r="K43" s="17">
-        <v>18075.350073228001</v>
-      </c>
-      <c r="L43" s="17">
         <v>16071.414023408999</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="18" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
         <v>65</v>
       </c>
+      <c r="B44" s="18">
+        <v>34485.925516345997</v>
+      </c>
       <c r="C44" s="18">
-        <v>34485.925516345997</v>
+        <v>32659.404166273998</v>
       </c>
       <c r="D44" s="18">
-        <v>32659.404166273998</v>
+        <v>31402.127211642</v>
       </c>
       <c r="E44" s="18">
-        <v>31402.127211642</v>
+        <v>29110.801058691999</v>
       </c>
       <c r="F44" s="18">
-        <v>29110.801058691999</v>
+        <v>26898.689272806001</v>
       </c>
       <c r="G44" s="18">
-        <v>26898.689272806001</v>
+        <v>24499.697980475001</v>
       </c>
       <c r="H44" s="18">
-        <v>24499.697980475001</v>
+        <v>22092.837391026002</v>
       </c>
       <c r="I44" s="18">
-        <v>22092.837391026002</v>
+        <v>19918.067649633002</v>
       </c>
       <c r="J44" s="18">
-        <v>19918.067649633002</v>
+        <v>17885.159850501001</v>
       </c>
       <c r="K44" s="18">
-        <v>17885.159850501001</v>
-      </c>
-      <c r="L44" s="18">
         <v>15826.906360098999</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="18" t="s">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
         <v>66</v>
       </c>
+      <c r="B45" s="18">
+        <v>44742.889913760999</v>
+      </c>
       <c r="C45" s="18">
-        <v>44742.889913760999</v>
+        <v>45300.305734517002</v>
       </c>
       <c r="D45" s="18">
-        <v>45300.305734517002</v>
+        <v>46542.278498451</v>
       </c>
       <c r="E45" s="18">
-        <v>46542.278498451</v>
+        <v>46769.79756146</v>
       </c>
       <c r="F45" s="18">
-        <v>46769.79756146</v>
+        <v>47131.76118098</v>
       </c>
       <c r="G45" s="18">
-        <v>47131.76118098</v>
+        <v>47318.448424009999</v>
       </c>
       <c r="H45" s="18">
-        <v>47318.448424009999</v>
+        <v>47379.785624356999</v>
       </c>
       <c r="I45" s="18">
-        <v>47379.785624356999</v>
+        <v>47445.942979102998</v>
       </c>
       <c r="J45" s="18">
-        <v>47445.942979102998</v>
+        <v>47550.903268738999</v>
       </c>
       <c r="K45" s="18">
-        <v>47550.903268738999</v>
-      </c>
-      <c r="L45" s="18">
         <v>47677.876854684</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="18" t="s">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
         <v>67</v>
       </c>
+      <c r="B46" s="18">
+        <v>-10256.964397415</v>
+      </c>
       <c r="C46" s="18">
-        <v>-10256.964397415</v>
+        <v>-12640.901568243</v>
       </c>
       <c r="D46" s="18">
-        <v>-12640.901568243</v>
+        <v>-15140.151286808999</v>
       </c>
       <c r="E46" s="18">
-        <v>-15140.151286808999</v>
+        <v>-17658.996502768001</v>
       </c>
       <c r="F46" s="18">
-        <v>-17658.996502768001</v>
+        <v>-20233.071908173999</v>
       </c>
       <c r="G46" s="18">
-        <v>-20233.071908173999</v>
+        <v>-22818.750443534998</v>
       </c>
       <c r="H46" s="18">
-        <v>-22818.750443534998</v>
+        <v>-25286.948233331001</v>
       </c>
       <c r="I46" s="18">
-        <v>-25286.948233331001</v>
+        <v>-27527.87532947</v>
       </c>
       <c r="J46" s="18">
-        <v>-27527.87532947</v>
+        <v>-29665.743418237998</v>
       </c>
       <c r="K46" s="18">
-        <v>-29665.743418237998</v>
-      </c>
-      <c r="L46" s="18">
         <v>-31850.970494584999</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="18" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="18" t="s">
         <v>68</v>
       </c>
+      <c r="B47" s="18">
+        <v>0</v>
+      </c>
       <c r="C47" s="18">
         <v>0</v>
       </c>
@@ -3312,14 +3312,14 @@
       <c r="K47" s="18">
         <v>0</v>
       </c>
-      <c r="L47" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="18" t="s">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
         <v>69</v>
       </c>
+      <c r="B48" s="18">
+        <v>0</v>
+      </c>
       <c r="C48" s="18">
         <v>0</v>
       </c>
@@ -3347,14 +3347,14 @@
       <c r="K48" s="18">
         <v>0</v>
       </c>
-      <c r="L48" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="18" t="s">
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
         <v>70</v>
       </c>
+      <c r="B49" s="18">
+        <v>0</v>
+      </c>
       <c r="C49" s="18">
         <v>0</v>
       </c>
@@ -3382,119 +3382,119 @@
       <c r="K49" s="18">
         <v>0</v>
       </c>
-      <c r="L49" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="18" t="s">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
         <v>71</v>
       </c>
+      <c r="B50" s="18">
+        <v>340.50051276800002</v>
+      </c>
       <c r="C50" s="18">
-        <v>340.50051276800002</v>
+        <v>345.766929538</v>
       </c>
       <c r="D50" s="18">
-        <v>345.766929538</v>
+        <v>350.050201356</v>
       </c>
       <c r="E50" s="18">
-        <v>350.050201356</v>
+        <v>395.75585083800001</v>
       </c>
       <c r="F50" s="18">
-        <v>395.75585083800001</v>
+        <v>407.263910834</v>
       </c>
       <c r="G50" s="18">
-        <v>407.263910834</v>
+        <v>347.81174445200003</v>
       </c>
       <c r="H50" s="18">
-        <v>347.81174445200003</v>
+        <v>282.69716039000002</v>
       </c>
       <c r="I50" s="18">
-        <v>282.69716039000002</v>
+        <v>218.02457601399999</v>
       </c>
       <c r="J50" s="18">
-        <v>218.02457601399999</v>
+        <v>190.19022272699999</v>
       </c>
       <c r="K50" s="18">
-        <v>190.19022272699999</v>
-      </c>
-      <c r="L50" s="18">
         <v>244.50766331</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="18" t="s">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
         <v>72</v>
       </c>
+      <c r="B51" s="18">
+        <v>484.63834972500001</v>
+      </c>
       <c r="C51" s="18">
-        <v>484.63834972500001</v>
+        <v>528.46170060400004</v>
       </c>
       <c r="D51" s="18">
-        <v>528.46170060400004</v>
+        <v>575.48055924799996</v>
       </c>
       <c r="E51" s="18">
-        <v>575.48055924799996</v>
+        <v>682.61511549500005</v>
       </c>
       <c r="F51" s="18">
-        <v>682.61511549500005</v>
+        <v>769.28455425100003</v>
       </c>
       <c r="G51" s="18">
-        <v>769.28455425100003</v>
+        <v>795.174418522</v>
       </c>
       <c r="H51" s="18">
-        <v>795.174418522</v>
+        <v>810.94364672200004</v>
       </c>
       <c r="I51" s="18">
-        <v>810.94364672200004</v>
+        <v>816.20468212200001</v>
       </c>
       <c r="J51" s="18">
-        <v>816.20468212200001</v>
+        <v>842.28787112199996</v>
       </c>
       <c r="K51" s="18">
-        <v>842.28787112199996</v>
-      </c>
-      <c r="L51" s="18">
         <v>974.57823713400001</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="18" t="s">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="18" t="s">
         <v>73</v>
       </c>
+      <c r="B52" s="18">
+        <v>-144.13783695699999</v>
+      </c>
       <c r="C52" s="18">
-        <v>-144.13783695699999</v>
+        <v>-182.69477106599999</v>
       </c>
       <c r="D52" s="18">
-        <v>-182.69477106599999</v>
+        <v>-225.43035789199999</v>
       </c>
       <c r="E52" s="18">
-        <v>-225.43035789199999</v>
+        <v>-286.85926465699998</v>
       </c>
       <c r="F52" s="18">
-        <v>-286.85926465699998</v>
+        <v>-362.02064341699997</v>
       </c>
       <c r="G52" s="18">
-        <v>-362.02064341699997</v>
+        <v>-447.36267407000003</v>
       </c>
       <c r="H52" s="18">
-        <v>-447.36267407000003</v>
+        <v>-528.24648633200002</v>
       </c>
       <c r="I52" s="18">
-        <v>-528.24648633200002</v>
+        <v>-598.18010610800002</v>
       </c>
       <c r="J52" s="18">
-        <v>-598.18010610800002</v>
+        <v>-652.09764839499996</v>
       </c>
       <c r="K52" s="18">
-        <v>-652.09764839499996</v>
-      </c>
-      <c r="L52" s="18">
         <v>-730.07057382400001</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="18" t="s">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="18" t="s">
         <v>74</v>
       </c>
+      <c r="B53" s="18">
+        <v>0</v>
+      </c>
       <c r="C53" s="18">
         <v>0</v>
       </c>
@@ -3522,14 +3522,14 @@
       <c r="K53" s="18">
         <v>0</v>
       </c>
-      <c r="L53" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="17" t="s">
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
         <v>75</v>
       </c>
+      <c r="B54" s="17">
+        <v>0</v>
+      </c>
       <c r="C54" s="17">
         <v>0</v>
       </c>
@@ -3557,14 +3557,14 @@
       <c r="K54" s="17">
         <v>0</v>
       </c>
-      <c r="L54" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="18" t="s">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="18" t="s">
         <v>76</v>
       </c>
+      <c r="B55" s="18">
+        <v>0</v>
+      </c>
       <c r="C55" s="18">
         <v>0</v>
       </c>
@@ -3592,14 +3592,14 @@
       <c r="K55" s="18">
         <v>0</v>
       </c>
-      <c r="L55" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="18" t="s">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="18" t="s">
         <v>77</v>
       </c>
+      <c r="B56" s="18">
+        <v>0</v>
+      </c>
       <c r="C56" s="18">
         <v>0</v>
       </c>
@@ -3627,121 +3627,121 @@
       <c r="K56" s="18">
         <v>0</v>
       </c>
-      <c r="L56" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="17" t="s">
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
         <v>78</v>
       </c>
+      <c r="B57" s="17">
+        <v>417.27024967099999</v>
+      </c>
       <c r="C57" s="17">
+        <v>250.85446764599999</v>
+      </c>
+      <c r="D57" s="17">
+        <v>789.57174439799996</v>
+      </c>
+      <c r="E57" s="17">
+        <v>1066.937323006</v>
+      </c>
+      <c r="F57" s="17">
+        <v>990.359037285</v>
+      </c>
+      <c r="G57" s="17">
+        <v>1026.49842511</v>
+      </c>
+      <c r="H57" s="17">
+        <v>1101.844765433</v>
+      </c>
+      <c r="I57" s="17">
+        <v>1205.504779827</v>
+      </c>
+      <c r="J57" s="17">
+        <v>1274.5519935570001</v>
+      </c>
+      <c r="K57" s="17">
+        <v>1195.207150125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="18">
+        <v>0</v>
+      </c>
+      <c r="C58" s="18">
+        <v>0</v>
+      </c>
+      <c r="D58" s="18">
+        <v>0</v>
+      </c>
+      <c r="E58" s="18">
+        <v>0</v>
+      </c>
+      <c r="F58" s="18">
+        <v>0</v>
+      </c>
+      <c r="G58" s="18">
+        <v>0</v>
+      </c>
+      <c r="H58" s="18">
+        <v>0</v>
+      </c>
+      <c r="I58" s="18">
+        <v>0</v>
+      </c>
+      <c r="J58" s="18">
+        <v>0</v>
+      </c>
+      <c r="K58" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="18">
         <v>417.27024967099999</v>
       </c>
-      <c r="D57" s="17">
+      <c r="C59" s="18">
         <v>250.85446764599999</v>
       </c>
-      <c r="E57" s="17">
+      <c r="D59" s="18">
         <v>789.57174439799996</v>
       </c>
-      <c r="F57" s="17">
+      <c r="E59" s="18">
         <v>1066.937323006</v>
       </c>
-      <c r="G57" s="17">
+      <c r="F59" s="18">
         <v>990.359037285</v>
       </c>
-      <c r="H57" s="17">
+      <c r="G59" s="18">
         <v>1026.49842511</v>
       </c>
-      <c r="I57" s="17">
+      <c r="H59" s="18">
         <v>1101.844765433</v>
       </c>
-      <c r="J57" s="17">
+      <c r="I59" s="18">
         <v>1205.504779827</v>
       </c>
-      <c r="K57" s="17">
+      <c r="J59" s="18">
         <v>1274.5519935570001</v>
       </c>
-      <c r="L57" s="17">
+      <c r="K59" s="18">
         <v>1195.207150125</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="18">
-        <v>0</v>
-      </c>
-      <c r="D58" s="18">
-        <v>0</v>
-      </c>
-      <c r="E58" s="18">
-        <v>0</v>
-      </c>
-      <c r="F58" s="18">
-        <v>0</v>
-      </c>
-      <c r="G58" s="18">
-        <v>0</v>
-      </c>
-      <c r="H58" s="18">
-        <v>0</v>
-      </c>
-      <c r="I58" s="18">
-        <v>0</v>
-      </c>
-      <c r="J58" s="18">
-        <v>0</v>
-      </c>
-      <c r="K58" s="18">
-        <v>0</v>
-      </c>
-      <c r="L58" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="18">
-        <v>417.27024967099999</v>
-      </c>
-      <c r="D59" s="18">
-        <v>250.85446764599999</v>
-      </c>
-      <c r="E59" s="18">
-        <v>789.57174439799996</v>
-      </c>
-      <c r="F59" s="18">
-        <v>1066.937323006</v>
-      </c>
-      <c r="G59" s="18">
-        <v>990.359037285</v>
-      </c>
-      <c r="H59" s="18">
-        <v>1026.49842511</v>
-      </c>
-      <c r="I59" s="18">
-        <v>1101.844765433</v>
-      </c>
-      <c r="J59" s="18">
-        <v>1205.504779827</v>
-      </c>
-      <c r="K59" s="18">
-        <v>1274.5519935570001</v>
-      </c>
-      <c r="L59" s="18">
-        <v>1195.207150125</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="17" t="s">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
         <v>81</v>
       </c>
+      <c r="B60" s="17">
+        <v>20.283205069000001</v>
+      </c>
       <c r="C60" s="17">
-        <v>20.283205069000001</v>
+        <v>11.244</v>
       </c>
       <c r="D60" s="17">
         <v>11.244</v>
@@ -3753,97 +3753,97 @@
         <v>11.244</v>
       </c>
       <c r="G60" s="17">
+        <v>10.018235822999999</v>
+      </c>
+      <c r="H60" s="17">
+        <v>9.9762621029999998</v>
+      </c>
+      <c r="I60" s="17">
+        <v>9.9796075640000002</v>
+      </c>
+      <c r="J60" s="17">
+        <v>9.9577780659999995</v>
+      </c>
+      <c r="K60" s="17">
+        <v>9.7512223660000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" s="18">
+        <v>0</v>
+      </c>
+      <c r="C61" s="18">
+        <v>0</v>
+      </c>
+      <c r="D61" s="18">
+        <v>0</v>
+      </c>
+      <c r="E61" s="18">
+        <v>0</v>
+      </c>
+      <c r="F61" s="18">
+        <v>0</v>
+      </c>
+      <c r="G61" s="18">
+        <v>0</v>
+      </c>
+      <c r="H61" s="18">
+        <v>0</v>
+      </c>
+      <c r="I61" s="18">
+        <v>0</v>
+      </c>
+      <c r="J61" s="18">
+        <v>0</v>
+      </c>
+      <c r="K61" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" s="18">
+        <v>9.0392050689999994</v>
+      </c>
+      <c r="C62" s="18">
+        <v>0</v>
+      </c>
+      <c r="D62" s="18">
+        <v>0</v>
+      </c>
+      <c r="E62" s="18">
+        <v>0</v>
+      </c>
+      <c r="F62" s="18">
+        <v>0</v>
+      </c>
+      <c r="G62" s="18">
+        <v>0</v>
+      </c>
+      <c r="H62" s="18">
+        <v>0</v>
+      </c>
+      <c r="I62" s="18">
+        <v>0</v>
+      </c>
+      <c r="J62" s="18">
+        <v>0</v>
+      </c>
+      <c r="K62" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" s="18">
         <v>11.244</v>
-      </c>
-      <c r="H60" s="17">
-        <v>10.018235822999999</v>
-      </c>
-      <c r="I60" s="17">
-        <v>9.9762621029999998</v>
-      </c>
-      <c r="J60" s="17">
-        <v>9.9796075640000002</v>
-      </c>
-      <c r="K60" s="17">
-        <v>9.9577780659999995</v>
-      </c>
-      <c r="L60" s="17">
-        <v>9.7512223660000004</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" s="18">
-        <v>0</v>
-      </c>
-      <c r="D61" s="18">
-        <v>0</v>
-      </c>
-      <c r="E61" s="18">
-        <v>0</v>
-      </c>
-      <c r="F61" s="18">
-        <v>0</v>
-      </c>
-      <c r="G61" s="18">
-        <v>0</v>
-      </c>
-      <c r="H61" s="18">
-        <v>0</v>
-      </c>
-      <c r="I61" s="18">
-        <v>0</v>
-      </c>
-      <c r="J61" s="18">
-        <v>0</v>
-      </c>
-      <c r="K61" s="18">
-        <v>0</v>
-      </c>
-      <c r="L61" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" s="18">
-        <v>9.0392050689999994</v>
-      </c>
-      <c r="D62" s="18">
-        <v>0</v>
-      </c>
-      <c r="E62" s="18">
-        <v>0</v>
-      </c>
-      <c r="F62" s="18">
-        <v>0</v>
-      </c>
-      <c r="G62" s="18">
-        <v>0</v>
-      </c>
-      <c r="H62" s="18">
-        <v>0</v>
-      </c>
-      <c r="I62" s="18">
-        <v>0</v>
-      </c>
-      <c r="J62" s="18">
-        <v>0</v>
-      </c>
-      <c r="K62" s="18">
-        <v>0</v>
-      </c>
-      <c r="L62" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="18" t="s">
-        <v>84</v>
       </c>
       <c r="C63" s="18">
         <v>11.244</v>
@@ -3872,14 +3872,14 @@
       <c r="K63" s="18">
         <v>11.244</v>
       </c>
-      <c r="L63" s="18">
-        <v>11.244</v>
-      </c>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="18" t="s">
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="18" t="s">
         <v>85</v>
       </c>
+      <c r="B64" s="18">
+        <v>0</v>
+      </c>
       <c r="C64" s="18">
         <v>0</v>
       </c>
@@ -3893,28 +3893,28 @@
         <v>0</v>
       </c>
       <c r="G64" s="18">
-        <v>0</v>
+        <v>-1.2257641770000001</v>
       </c>
       <c r="H64" s="18">
-        <v>-1.2257641770000001</v>
+        <v>-1.2677378969999999</v>
       </c>
       <c r="I64" s="18">
-        <v>-1.2677378969999999</v>
+        <v>-1.2643924360000001</v>
       </c>
       <c r="J64" s="18">
-        <v>-1.2643924360000001</v>
+        <v>-1.2862219340000001</v>
       </c>
       <c r="K64" s="18">
-        <v>-1.2862219340000001</v>
-      </c>
-      <c r="L64" s="18">
         <v>-1.4927776340000001</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="18" t="s">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="18" t="s">
         <v>36</v>
       </c>
+      <c r="B65" s="18">
+        <v>0</v>
+      </c>
       <c r="C65" s="18">
         <v>0</v>
       </c>
@@ -3942,14 +3942,14 @@
       <c r="K65" s="18">
         <v>0</v>
       </c>
-      <c r="L65" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="18" t="s">
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="18" t="s">
         <v>86</v>
       </c>
+      <c r="B66" s="18">
+        <v>0</v>
+      </c>
       <c r="C66" s="18">
         <v>0</v>
       </c>
@@ -3977,84 +3977,84 @@
       <c r="K66" s="18">
         <v>0</v>
       </c>
-      <c r="L66" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="17" t="s">
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="17" t="s">
         <v>87</v>
       </c>
+      <c r="B67" s="17">
+        <v>107.040778605</v>
+      </c>
       <c r="C67" s="17">
+        <v>38.512177111</v>
+      </c>
+      <c r="D67" s="17">
+        <v>440.39956366299998</v>
+      </c>
+      <c r="E67" s="17">
+        <v>357.70389123299998</v>
+      </c>
+      <c r="F67" s="17">
+        <v>346.56372986899999</v>
+      </c>
+      <c r="G67" s="17">
+        <v>270.825849092</v>
+      </c>
+      <c r="H67" s="17">
+        <v>1876.847006861</v>
+      </c>
+      <c r="I67" s="17">
+        <v>366.27735558799998</v>
+      </c>
+      <c r="J67" s="17">
+        <v>122.694274831</v>
+      </c>
+      <c r="K67" s="17">
+        <v>89.127981951999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" s="18">
         <v>107.040778605</v>
       </c>
-      <c r="D67" s="17">
+      <c r="C68" s="18">
         <v>38.512177111</v>
       </c>
-      <c r="E67" s="17">
+      <c r="D68" s="18">
         <v>440.39956366299998</v>
       </c>
-      <c r="F67" s="17">
-        <v>357.70389123299998</v>
-      </c>
-      <c r="G67" s="17">
-        <v>346.56372986899999</v>
-      </c>
-      <c r="H67" s="17">
-        <v>270.825849092</v>
-      </c>
-      <c r="I67" s="17">
-        <v>1876.847006861</v>
-      </c>
-      <c r="J67" s="17">
-        <v>366.27735558799998</v>
-      </c>
-      <c r="K67" s="17">
-        <v>122.694274831</v>
-      </c>
-      <c r="L67" s="17">
-        <v>89.127981951999999</v>
-      </c>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B68" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" s="18">
-        <v>107.040778605</v>
-      </c>
-      <c r="D68" s="18">
-        <v>38.512177111</v>
-      </c>
       <c r="E68" s="18">
-        <v>440.39956366299998</v>
+        <v>357.684152176</v>
       </c>
       <c r="F68" s="18">
-        <v>357.684152176</v>
+        <v>346.548051418</v>
       </c>
       <c r="G68" s="18">
-        <v>346.548051418</v>
+        <v>270.81423124700001</v>
       </c>
       <c r="H68" s="18">
-        <v>270.81423124700001</v>
+        <v>1876.8394496220001</v>
       </c>
       <c r="I68" s="18">
-        <v>1876.8394496220001</v>
+        <v>320.644836279</v>
       </c>
       <c r="J68" s="18">
-        <v>320.644836279</v>
+        <v>103.138979398</v>
       </c>
       <c r="K68" s="18">
-        <v>103.138979398</v>
-      </c>
-      <c r="L68" s="18">
         <v>79.385540578999993</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="18" t="s">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="18" t="s">
         <v>89</v>
       </c>
+      <c r="B69" s="18">
+        <v>0</v>
+      </c>
       <c r="C69" s="18">
         <v>0</v>
       </c>
@@ -4062,34 +4062,34 @@
         <v>0</v>
       </c>
       <c r="E69" s="18">
-        <v>0</v>
+        <v>1.9739057000000001E-2</v>
       </c>
       <c r="F69" s="18">
-        <v>1.9739057000000001E-2</v>
+        <v>1.5678450999999999E-2</v>
       </c>
       <c r="G69" s="18">
-        <v>1.5678450999999999E-2</v>
+        <v>1.1617845E-2</v>
       </c>
       <c r="H69" s="18">
-        <v>1.1617845E-2</v>
+        <v>7.5572390000000003E-3</v>
       </c>
       <c r="I69" s="18">
-        <v>7.5572390000000003E-3</v>
+        <v>45.632519309000003</v>
       </c>
       <c r="J69" s="18">
-        <v>45.632519309000003</v>
+        <v>19.555295433000001</v>
       </c>
       <c r="K69" s="18">
-        <v>19.555295433000001</v>
-      </c>
-      <c r="L69" s="18">
         <v>9.7424413730000001</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="18" t="s">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="18" t="s">
         <v>90</v>
       </c>
+      <c r="B70" s="18">
+        <v>0</v>
+      </c>
       <c r="C70" s="18">
         <v>0</v>
       </c>
@@ -4117,14 +4117,14 @@
       <c r="K70" s="18">
         <v>0</v>
       </c>
-      <c r="L70" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" s="18" t="s">
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="18" t="s">
         <v>91</v>
       </c>
+      <c r="B71" s="18">
+        <v>0</v>
+      </c>
       <c r="C71" s="18">
         <v>0</v>
       </c>
@@ -4152,14 +4152,14 @@
       <c r="K71" s="18">
         <v>0</v>
       </c>
-      <c r="L71" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B72" s="18" t="s">
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="18" t="s">
         <v>92</v>
       </c>
+      <c r="B72" s="18">
+        <v>0</v>
+      </c>
       <c r="C72" s="18">
         <v>0</v>
       </c>
@@ -4187,294 +4187,294 @@
       <c r="K72" s="18">
         <v>0</v>
       </c>
-      <c r="L72" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B73" s="17" t="s">
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="17" t="s">
         <v>93</v>
       </c>
+      <c r="B73" s="17">
+        <v>81156.799304155007</v>
+      </c>
       <c r="C73" s="17">
-        <v>81156.799304155007</v>
+        <v>59923.710596133998</v>
       </c>
       <c r="D73" s="17">
-        <v>59923.710596133998</v>
+        <v>63181.382122902003</v>
       </c>
       <c r="E73" s="17">
-        <v>63181.382122902003</v>
+        <v>63260.794448651002</v>
       </c>
       <c r="F73" s="17">
-        <v>63260.794448651002</v>
+        <v>53211.604809680997</v>
       </c>
       <c r="G73" s="17">
-        <v>53211.604809680997</v>
+        <v>53583.992996059002</v>
       </c>
       <c r="H73" s="17">
-        <v>53583.992996059002</v>
+        <v>55894.934071073003</v>
       </c>
       <c r="I73" s="17">
-        <v>55894.934071073003</v>
+        <v>66795.662728648997</v>
       </c>
       <c r="J73" s="17">
-        <v>66795.662728648997</v>
+        <v>78487.929061849994</v>
       </c>
       <c r="K73" s="17">
-        <v>78487.929061849994</v>
-      </c>
-      <c r="L73" s="17">
         <v>86594.660994410006</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B74" s="17" t="s">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="17" t="s">
         <v>94</v>
       </c>
+      <c r="B74" s="17">
+        <v>53813.689177515</v>
+      </c>
       <c r="C74" s="17">
-        <v>53813.689177515</v>
+        <v>28176.990324605002</v>
       </c>
       <c r="D74" s="17">
-        <v>28176.990324605002</v>
+        <v>30297.532297406</v>
       </c>
       <c r="E74" s="17">
-        <v>30297.532297406</v>
+        <v>28902.989713462001</v>
       </c>
       <c r="F74" s="17">
-        <v>28902.989713462001</v>
+        <v>21834.058479840998</v>
       </c>
       <c r="G74" s="17">
-        <v>21834.058479840998</v>
+        <v>19530.395992348</v>
       </c>
       <c r="H74" s="17">
-        <v>19530.395992348</v>
+        <v>24830.395140150998</v>
       </c>
       <c r="I74" s="17">
-        <v>24830.395140150998</v>
+        <v>29231.857736538001</v>
       </c>
       <c r="J74" s="17">
-        <v>29231.857736538001</v>
+        <v>27297.582189789999</v>
       </c>
       <c r="K74" s="17">
-        <v>27297.582189789999</v>
-      </c>
-      <c r="L74" s="17">
         <v>29325.965248034001</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B75" s="17" t="s">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="17" t="s">
         <v>95</v>
       </c>
+      <c r="B75" s="17">
+        <v>35680.966633880998</v>
+      </c>
       <c r="C75" s="17">
-        <v>35680.966633880998</v>
+        <v>11397.228900048</v>
       </c>
       <c r="D75" s="17">
-        <v>11397.228900048</v>
+        <v>15776.454279722</v>
       </c>
       <c r="E75" s="17">
-        <v>15776.454279722</v>
+        <v>17891.683942520001</v>
       </c>
       <c r="F75" s="17">
-        <v>17891.683942520001</v>
+        <v>13100.402057914</v>
       </c>
       <c r="G75" s="17">
-        <v>13100.402057914</v>
+        <v>12916.387379661001</v>
       </c>
       <c r="H75" s="17">
-        <v>12916.387379661001</v>
+        <v>20407.344880956</v>
       </c>
       <c r="I75" s="17">
-        <v>20407.344880956</v>
+        <v>26940.444771659</v>
       </c>
       <c r="J75" s="17">
-        <v>26940.444771659</v>
+        <v>26015.466987812</v>
       </c>
       <c r="K75" s="17">
-        <v>26015.466987812</v>
-      </c>
-      <c r="L75" s="17">
         <v>28442.061214664998</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B76" s="18" t="s">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="18" t="s">
         <v>96</v>
       </c>
+      <c r="B76" s="18">
+        <v>6457.8803786210001</v>
+      </c>
       <c r="C76" s="18">
-        <v>6457.8803786210001</v>
+        <v>4449.6663262809998</v>
       </c>
       <c r="D76" s="18">
-        <v>4449.6663262809998</v>
+        <v>5790.1000355910001</v>
       </c>
       <c r="E76" s="18">
-        <v>5790.1000355910001</v>
+        <v>7857.193853455</v>
       </c>
       <c r="F76" s="18">
-        <v>7857.193853455</v>
+        <v>5999.8457660000004</v>
       </c>
       <c r="G76" s="18">
-        <v>5999.8457660000004</v>
+        <v>7067.9414107379998</v>
       </c>
       <c r="H76" s="18">
-        <v>7067.9414107379998</v>
+        <v>7004.9307222850002</v>
       </c>
       <c r="I76" s="18">
-        <v>7004.9307222850002</v>
+        <v>9449.8877967200006</v>
       </c>
       <c r="J76" s="18">
-        <v>9449.8877967200006</v>
+        <v>14835.754454021</v>
       </c>
       <c r="K76" s="18">
-        <v>14835.754454021</v>
-      </c>
-      <c r="L76" s="18">
         <v>14616.088750645</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B77" s="18" t="s">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="18" t="s">
         <v>97</v>
       </c>
+      <c r="B77" s="18">
+        <v>0.15459590200000001</v>
+      </c>
       <c r="C77" s="18">
-        <v>0.15459590200000001</v>
+        <v>1.4971397440000001</v>
       </c>
       <c r="D77" s="18">
-        <v>1.4971397440000001</v>
+        <v>0.78920220200000002</v>
       </c>
       <c r="E77" s="18">
-        <v>0.78920220200000002</v>
+        <v>0.10963301</v>
       </c>
       <c r="F77" s="18">
-        <v>0.10963301</v>
+        <v>13.503645791</v>
       </c>
       <c r="G77" s="18">
-        <v>13.503645791</v>
+        <v>4.4147709720000003</v>
       </c>
       <c r="H77" s="18">
-        <v>4.4147709720000003</v>
+        <v>4.317931433</v>
       </c>
       <c r="I77" s="18">
-        <v>4.317931433</v>
+        <v>2.7877156639999998</v>
       </c>
       <c r="J77" s="18">
-        <v>2.7877156639999998</v>
+        <v>37.919613984000001</v>
       </c>
       <c r="K77" s="18">
-        <v>37.919613984000001</v>
-      </c>
-      <c r="L77" s="18">
         <v>246.761832957</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B78" s="18" t="s">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="18" t="s">
         <v>98</v>
       </c>
+      <c r="B78" s="18">
+        <v>2669.5117293100002</v>
+      </c>
       <c r="C78" s="18">
-        <v>2669.5117293100002</v>
+        <v>1873.71705935</v>
       </c>
       <c r="D78" s="18">
-        <v>1873.71705935</v>
+        <v>1398.404190256</v>
       </c>
       <c r="E78" s="18">
-        <v>1398.404190256</v>
+        <v>1306.2913079509999</v>
       </c>
       <c r="F78" s="18">
-        <v>1306.2913079509999</v>
+        <v>779.70327627400002</v>
       </c>
       <c r="G78" s="18">
-        <v>779.70327627400002</v>
+        <v>1324.184390421</v>
       </c>
       <c r="H78" s="18">
-        <v>1324.184390421</v>
+        <v>951.33665324399999</v>
       </c>
       <c r="I78" s="18">
-        <v>951.33665324399999</v>
+        <v>1658.6135896369999</v>
       </c>
       <c r="J78" s="18">
-        <v>1658.6135896369999</v>
+        <v>1396.3492500980001</v>
       </c>
       <c r="K78" s="18">
-        <v>1396.3492500980001</v>
-      </c>
-      <c r="L78" s="18">
         <v>1613.7516410979999</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B79" s="18" t="s">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="18" t="s">
         <v>99</v>
       </c>
+      <c r="B79" s="18">
+        <v>146.40088205500001</v>
+      </c>
       <c r="C79" s="18">
-        <v>146.40088205500001</v>
+        <v>165.87726106100001</v>
       </c>
       <c r="D79" s="18">
-        <v>165.87726106100001</v>
+        <v>160.894925277</v>
       </c>
       <c r="E79" s="18">
-        <v>160.894925277</v>
+        <v>141.129400374</v>
       </c>
       <c r="F79" s="18">
-        <v>141.129400374</v>
+        <v>135.96858486100001</v>
       </c>
       <c r="G79" s="18">
-        <v>135.96858486100001</v>
+        <v>137.67294702699999</v>
       </c>
       <c r="H79" s="18">
-        <v>137.67294702699999</v>
+        <v>110.891005463</v>
       </c>
       <c r="I79" s="18">
-        <v>110.891005463</v>
+        <v>110.64284054399999</v>
       </c>
       <c r="J79" s="18">
-        <v>110.64284054399999</v>
+        <v>225.00480179499999</v>
       </c>
       <c r="K79" s="18">
-        <v>225.00480179499999</v>
-      </c>
-      <c r="L79" s="18">
         <v>231.73793239</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="18" t="s">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="18" t="s">
         <v>100</v>
       </c>
+      <c r="B80" s="18">
+        <v>82.240361192999998</v>
+      </c>
       <c r="C80" s="18">
-        <v>82.240361192999998</v>
+        <v>56.852300190000001</v>
       </c>
       <c r="D80" s="18">
-        <v>56.852300190000001</v>
+        <v>114.19671923600001</v>
       </c>
       <c r="E80" s="18">
-        <v>114.19671923600001</v>
+        <v>894.84896581800001</v>
       </c>
       <c r="F80" s="18">
-        <v>894.84896581800001</v>
+        <v>1689.4320956510001</v>
       </c>
       <c r="G80" s="18">
-        <v>1689.4320956510001</v>
+        <v>281.97724416</v>
       </c>
       <c r="H80" s="18">
-        <v>281.97724416</v>
+        <v>310.57987535000001</v>
       </c>
       <c r="I80" s="18">
-        <v>310.57987535000001</v>
+        <v>355.73422300599998</v>
       </c>
       <c r="J80" s="18">
-        <v>355.73422300599998</v>
+        <v>429.13769280999998</v>
       </c>
       <c r="K80" s="18">
-        <v>429.13769280999998</v>
-      </c>
-      <c r="L80" s="18">
         <v>592.09338761200001</v>
       </c>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B81" s="18" t="s">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="18" t="s">
         <v>101</v>
       </c>
+      <c r="B81" s="18">
+        <v>0</v>
+      </c>
       <c r="C81" s="18">
         <v>0</v>
       </c>
@@ -4502,14 +4502,14 @@
       <c r="K81" s="18">
         <v>0</v>
       </c>
-      <c r="L81" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B82" s="18" t="s">
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="18" t="s">
         <v>102</v>
       </c>
+      <c r="B82" s="18">
+        <v>0</v>
+      </c>
       <c r="C82" s="18">
         <v>0</v>
       </c>
@@ -4537,14 +4537,14 @@
       <c r="K82" s="18">
         <v>0</v>
       </c>
-      <c r="L82" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B83" s="18" t="s">
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="18" t="s">
         <v>103</v>
       </c>
+      <c r="B83" s="18">
+        <v>0</v>
+      </c>
       <c r="C83" s="18">
         <v>0</v>
       </c>
@@ -4564,92 +4564,92 @@
         <v>0</v>
       </c>
       <c r="I83" s="18">
-        <v>0</v>
+        <v>0.70990909000000002</v>
       </c>
       <c r="J83" s="18">
-        <v>0.70990909000000002</v>
+        <v>0.14407114600000001</v>
       </c>
       <c r="K83" s="18">
-        <v>0.14407114600000001</v>
-      </c>
-      <c r="L83" s="18">
         <v>0.96400496499999999</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B84" s="18" t="s">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="18" t="s">
         <v>104</v>
       </c>
+      <c r="B84" s="18">
+        <v>7.8717029199999997</v>
+      </c>
       <c r="C84" s="18">
-        <v>7.8717029199999997</v>
+        <v>880.411073644</v>
       </c>
       <c r="D84" s="18">
-        <v>880.411073644</v>
+        <v>4331.9331668779996</v>
       </c>
       <c r="E84" s="18">
-        <v>4331.9331668779996</v>
+        <v>2933.0019590329998</v>
       </c>
       <c r="F84" s="18">
-        <v>2933.0019590329998</v>
+        <v>1624.093475531</v>
       </c>
       <c r="G84" s="18">
-        <v>1624.093475531</v>
+        <v>2874.0518974410002</v>
       </c>
       <c r="H84" s="18">
-        <v>2874.0518974410002</v>
+        <v>1905.378573837</v>
       </c>
       <c r="I84" s="18">
-        <v>1905.378573837</v>
+        <v>5336.0170630089997</v>
       </c>
       <c r="J84" s="18">
-        <v>5336.0170630089997</v>
+        <v>32.684869220000003</v>
       </c>
       <c r="K84" s="18">
-        <v>32.684869220000003</v>
-      </c>
-      <c r="L84" s="18">
         <v>56.503530791999999</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B85" s="18" t="s">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="18" t="s">
         <v>105</v>
       </c>
+      <c r="B85" s="18">
+        <v>26334.693181973998</v>
+      </c>
       <c r="C85" s="18">
-        <v>26334.693181973998</v>
+        <v>3885.4958888860001</v>
       </c>
       <c r="D85" s="18">
-        <v>3885.4958888860001</v>
+        <v>3852.869362811</v>
       </c>
       <c r="E85" s="18">
-        <v>3852.869362811</v>
+        <v>4659.7073061629999</v>
       </c>
       <c r="F85" s="18">
-        <v>4659.7073061629999</v>
+        <v>2815.8627171950002</v>
       </c>
       <c r="G85" s="18">
-        <v>2815.8627171950002</v>
+        <v>1106.165600001</v>
       </c>
       <c r="H85" s="18">
-        <v>1106.165600001</v>
+        <v>9969.2792739050001</v>
       </c>
       <c r="I85" s="18">
-        <v>9969.2792739050001</v>
+        <v>9829.1813527359991</v>
       </c>
       <c r="J85" s="18">
-        <v>9829.1813527359991</v>
+        <v>8954.4059749150001</v>
       </c>
       <c r="K85" s="18">
-        <v>8954.4059749150001</v>
-      </c>
-      <c r="L85" s="18">
         <v>10970.334445963001</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B86" s="18" t="s">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="18" t="s">
         <v>106</v>
       </c>
+      <c r="B86" s="18">
+        <v>0</v>
+      </c>
       <c r="C86" s="18">
         <v>0</v>
       </c>
@@ -4677,49 +4677,49 @@
       <c r="K86" s="18">
         <v>0</v>
       </c>
-      <c r="L86" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B87" s="18" t="s">
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="18" t="s">
         <v>107</v>
       </c>
+      <c r="B87" s="18">
+        <v>-17.786198094</v>
+      </c>
       <c r="C87" s="18">
-        <v>-17.786198094</v>
+        <v>83.711850892000001</v>
       </c>
       <c r="D87" s="18">
-        <v>83.711850892000001</v>
+        <v>127.26667747099999</v>
       </c>
       <c r="E87" s="18">
-        <v>127.26667747099999</v>
+        <v>99.401516716000003</v>
       </c>
       <c r="F87" s="18">
-        <v>99.401516716000003</v>
+        <v>41.992496611</v>
       </c>
       <c r="G87" s="18">
-        <v>41.992496611</v>
+        <v>119.97911890100001</v>
       </c>
       <c r="H87" s="18">
-        <v>119.97911890100001</v>
+        <v>150.63084543900001</v>
       </c>
       <c r="I87" s="18">
-        <v>150.63084543900001</v>
+        <v>196.870281253</v>
       </c>
       <c r="J87" s="18">
-        <v>196.870281253</v>
+        <v>104.066259823</v>
       </c>
       <c r="K87" s="18">
-        <v>104.066259823</v>
-      </c>
-      <c r="L87" s="18">
         <v>113.825688243</v>
       </c>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B88" s="18" t="s">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="18" t="s">
         <v>108</v>
       </c>
+      <c r="B88" s="18">
+        <v>0</v>
+      </c>
       <c r="C88" s="18">
         <v>0</v>
       </c>
@@ -4747,14 +4747,14 @@
       <c r="K88" s="18">
         <v>0</v>
       </c>
-      <c r="L88" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B89" s="18" t="s">
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="18" t="s">
         <v>53</v>
       </c>
+      <c r="B89" s="18">
+        <v>0</v>
+      </c>
       <c r="C89" s="18">
         <v>0</v>
       </c>
@@ -4782,49 +4782,49 @@
       <c r="K89" s="18">
         <v>0</v>
       </c>
-      <c r="L89" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B90" s="17" t="s">
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="17" t="s">
         <v>109</v>
       </c>
+      <c r="B90" s="17">
+        <v>18132.722543634001</v>
+      </c>
       <c r="C90" s="17">
-        <v>18132.722543634001</v>
+        <v>16779.761424557</v>
       </c>
       <c r="D90" s="17">
-        <v>16779.761424557</v>
+        <v>14521.078017684</v>
       </c>
       <c r="E90" s="17">
-        <v>14521.078017684</v>
+        <v>11011.305770942001</v>
       </c>
       <c r="F90" s="17">
-        <v>11011.305770942001</v>
+        <v>8733.6564219270003</v>
       </c>
       <c r="G90" s="17">
-        <v>8733.6564219270003</v>
+        <v>6614.0086126870001</v>
       </c>
       <c r="H90" s="17">
-        <v>6614.0086126870001</v>
+        <v>4423.0502591949999</v>
       </c>
       <c r="I90" s="17">
-        <v>4423.0502591949999</v>
+        <v>2291.4129648789999</v>
       </c>
       <c r="J90" s="17">
-        <v>2291.4129648789999</v>
+        <v>1282.115201978</v>
       </c>
       <c r="K90" s="17">
-        <v>1282.115201978</v>
-      </c>
-      <c r="L90" s="17">
         <v>883.90403336899999</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B91" s="18" t="s">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="18" t="s">
         <v>110</v>
       </c>
+      <c r="B91" s="18">
+        <v>0</v>
+      </c>
       <c r="C91" s="18">
         <v>0</v>
       </c>
@@ -4852,14 +4852,14 @@
       <c r="K91" s="18">
         <v>0</v>
       </c>
-      <c r="L91" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B92" s="18" t="s">
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="18" t="s">
         <v>111</v>
       </c>
+      <c r="B92" s="18">
+        <v>0</v>
+      </c>
       <c r="C92" s="18">
         <v>0</v>
       </c>
@@ -4887,14 +4887,14 @@
       <c r="K92" s="18">
         <v>0</v>
       </c>
-      <c r="L92" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B93" s="18" t="s">
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="18" t="s">
         <v>112</v>
       </c>
+      <c r="B93" s="18">
+        <v>0</v>
+      </c>
       <c r="C93" s="18">
         <v>0</v>
       </c>
@@ -4922,14 +4922,14 @@
       <c r="K93" s="18">
         <v>0</v>
       </c>
-      <c r="L93" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B94" s="18" t="s">
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="18" t="s">
         <v>113</v>
       </c>
+      <c r="B94" s="18">
+        <v>0</v>
+      </c>
       <c r="C94" s="18">
         <v>0</v>
       </c>
@@ -4957,14 +4957,14 @@
       <c r="K94" s="18">
         <v>0</v>
       </c>
-      <c r="L94" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B95" s="18" t="s">
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="18" t="s">
         <v>114</v>
       </c>
+      <c r="B95" s="18">
+        <v>0</v>
+      </c>
       <c r="C95" s="18">
         <v>0</v>
       </c>
@@ -4992,14 +4992,14 @@
       <c r="K95" s="18">
         <v>0</v>
       </c>
-      <c r="L95" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B96" s="18" t="s">
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="18" t="s">
         <v>115</v>
       </c>
+      <c r="B96" s="18">
+        <v>0</v>
+      </c>
       <c r="C96" s="18">
         <v>0</v>
       </c>
@@ -5027,14 +5027,14 @@
       <c r="K96" s="18">
         <v>0</v>
       </c>
-      <c r="L96" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B97" s="18" t="s">
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="18" t="s">
         <v>116</v>
       </c>
+      <c r="B97" s="18">
+        <v>0</v>
+      </c>
       <c r="C97" s="18">
         <v>0</v>
       </c>
@@ -5048,63 +5048,63 @@
         <v>0</v>
       </c>
       <c r="G97" s="18">
-        <v>0</v>
+        <v>2.7711939870000002</v>
       </c>
       <c r="H97" s="18">
         <v>2.7711939870000002</v>
       </c>
       <c r="I97" s="18">
-        <v>2.7711939870000002</v>
+        <v>0</v>
       </c>
       <c r="J97" s="18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K97" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="L97" s="18">
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B98" s="18" t="s">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="18" t="s">
         <v>117</v>
       </c>
+      <c r="B98" s="18">
+        <v>18123.699682503</v>
+      </c>
       <c r="C98" s="18">
-        <v>18123.699682503</v>
+        <v>15488.986328284</v>
       </c>
       <c r="D98" s="18">
-        <v>15488.986328284</v>
+        <v>12625.799968612</v>
       </c>
       <c r="E98" s="18">
-        <v>12625.799968612</v>
+        <v>9566.2195538010001</v>
       </c>
       <c r="F98" s="18">
-        <v>9566.2195538010001</v>
+        <v>7315.3712771700002</v>
       </c>
       <c r="G98" s="18">
-        <v>7315.3712771700002</v>
+        <v>5192.3473093339999</v>
       </c>
       <c r="H98" s="18">
-        <v>5192.3473093339999</v>
+        <v>3022.1220029380002</v>
       </c>
       <c r="I98" s="18">
-        <v>3022.1220029380002</v>
+        <v>942.63904000000002</v>
       </c>
       <c r="J98" s="18">
-        <v>942.63904000000002</v>
+        <v>0</v>
       </c>
       <c r="K98" s="18">
         <v>0</v>
       </c>
-      <c r="L98" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B99" s="18" t="s">
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="18" t="s">
         <v>118</v>
       </c>
+      <c r="B99" s="18">
+        <v>0</v>
+      </c>
       <c r="C99" s="18">
         <v>0</v>
       </c>
@@ -5132,14 +5132,14 @@
       <c r="K99" s="18">
         <v>0</v>
       </c>
-      <c r="L99" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B100" s="18" t="s">
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="18" t="s">
         <v>119</v>
       </c>
+      <c r="B100" s="18">
+        <v>0</v>
+      </c>
       <c r="C100" s="18">
         <v>0</v>
       </c>
@@ -5167,31 +5167,31 @@
       <c r="K100" s="18">
         <v>0</v>
       </c>
-      <c r="L100" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B101" s="18" t="s">
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="18" t="s">
         <v>120</v>
       </c>
+      <c r="B101" s="18">
+        <v>0</v>
+      </c>
       <c r="C101" s="18">
-        <v>0</v>
+        <v>7.8221532739999997</v>
       </c>
       <c r="D101" s="18">
-        <v>7.8221532739999997</v>
+        <v>12.373991825999999</v>
       </c>
       <c r="E101" s="18">
-        <v>12.373991825999999</v>
+        <v>16.223772751999999</v>
       </c>
       <c r="F101" s="18">
-        <v>16.223772751999999</v>
+        <v>2.4713992980000001</v>
       </c>
       <c r="G101" s="18">
-        <v>2.4713992980000001</v>
+        <v>6.5939902860000004</v>
       </c>
       <c r="H101" s="18">
-        <v>6.5939902860000004</v>
+        <v>10.288601445999999</v>
       </c>
       <c r="I101" s="18">
         <v>10.288601445999999</v>
@@ -5202,14 +5202,12 @@
       <c r="K101" s="18">
         <v>10.288601445999999</v>
       </c>
-      <c r="L101" s="18">
-        <v>10.288601445999999</v>
-      </c>
-    </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B102" s="18" t="s">
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="18" t="s">
         <v>121</v>
       </c>
+      <c r="B102" s="18"/>
       <c r="C102" s="18"/>
       <c r="D102" s="18"/>
       <c r="E102" s="18"/>
@@ -5219,20 +5217,22 @@
       <c r="I102" s="18"/>
       <c r="J102" s="18"/>
       <c r="K102" s="18"/>
-      <c r="L102" s="18"/>
-    </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B103" s="18" t="s">
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="18" t="s">
         <v>122</v>
       </c>
+      <c r="B103" s="18">
+        <v>0</v>
+      </c>
       <c r="C103" s="18">
-        <v>0</v>
+        <v>639.82500000000005</v>
       </c>
       <c r="D103" s="18">
-        <v>639.82500000000005</v>
+        <v>697.18826644900003</v>
       </c>
       <c r="E103" s="18">
-        <v>697.18826644900003</v>
+        <v>0</v>
       </c>
       <c r="F103" s="18">
         <v>0</v>
@@ -5252,130 +5252,130 @@
       <c r="K103" s="18">
         <v>0</v>
       </c>
-      <c r="L103" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B104" s="18" t="s">
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="18" t="s">
         <v>123</v>
       </c>
+      <c r="B104" s="18">
+        <v>9.0228611310000009</v>
+      </c>
       <c r="C104" s="18">
-        <v>9.0228611310000009</v>
+        <v>643.12794299899997</v>
       </c>
       <c r="D104" s="18">
-        <v>643.12794299899997</v>
+        <v>1185.715790797</v>
       </c>
       <c r="E104" s="18">
-        <v>1185.715790797</v>
+        <v>1428.8624443890001</v>
       </c>
       <c r="F104" s="18">
-        <v>1428.8624443890001</v>
+        <v>1415.8137454590001</v>
       </c>
       <c r="G104" s="18">
-        <v>1415.8137454590001</v>
+        <v>1412.2961190799999</v>
       </c>
       <c r="H104" s="18">
-        <v>1412.2961190799999</v>
+        <v>1387.8684608240001</v>
       </c>
       <c r="I104" s="18">
-        <v>1387.8684608240001</v>
+        <v>1338.4853234330001</v>
       </c>
       <c r="J104" s="18">
-        <v>1338.4853234330001</v>
+        <v>1271.726600532</v>
       </c>
       <c r="K104" s="18">
-        <v>1271.726600532</v>
-      </c>
-      <c r="L104" s="18">
         <v>873.54943192300004</v>
       </c>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B105" s="17" t="s">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="17" t="s">
         <v>124</v>
       </c>
+      <c r="B105" s="17">
+        <v>27343.11012664</v>
+      </c>
       <c r="C105" s="17">
-        <v>27343.11012664</v>
+        <v>31746.720271529</v>
       </c>
       <c r="D105" s="17">
+        <v>32883.849825496</v>
+      </c>
+      <c r="E105" s="17">
+        <v>34357.804735188998</v>
+      </c>
+      <c r="F105" s="17">
+        <v>31377.546329839999</v>
+      </c>
+      <c r="G105" s="17">
+        <v>34053.597003711002</v>
+      </c>
+      <c r="H105" s="17">
+        <v>31064.538930922001</v>
+      </c>
+      <c r="I105" s="17">
+        <v>37563.804992111</v>
+      </c>
+      <c r="J105" s="17">
+        <v>51190.346872059999</v>
+      </c>
+      <c r="K105" s="17">
+        <v>57268.695746375997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B106" s="17">
+        <v>27342.759598320001</v>
+      </c>
+      <c r="C106" s="17">
         <v>31746.720271529</v>
       </c>
-      <c r="E105" s="17">
+      <c r="D106" s="17">
         <v>32883.849825496</v>
       </c>
-      <c r="F105" s="17">
+      <c r="E106" s="17">
         <v>34357.804735188998</v>
       </c>
-      <c r="G105" s="17">
+      <c r="F106" s="17">
         <v>31377.546329839999</v>
       </c>
-      <c r="H105" s="17">
+      <c r="G106" s="17">
         <v>34053.597003711002</v>
       </c>
-      <c r="I105" s="17">
+      <c r="H106" s="17">
         <v>31064.538930922001</v>
       </c>
-      <c r="J105" s="17">
+      <c r="I106" s="17">
         <v>37563.804992111</v>
       </c>
-      <c r="K105" s="17">
+      <c r="J106" s="17">
         <v>51190.346872059999</v>
       </c>
-      <c r="L105" s="17">
+      <c r="K106" s="17">
         <v>57268.695746375997</v>
       </c>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B106" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C106" s="17">
-        <v>27342.759598320001</v>
-      </c>
-      <c r="D106" s="17">
-        <v>31746.720271529</v>
-      </c>
-      <c r="E106" s="17">
-        <v>32883.849825496</v>
-      </c>
-      <c r="F106" s="17">
-        <v>34357.804735188998</v>
-      </c>
-      <c r="G106" s="17">
-        <v>31377.546329839999</v>
-      </c>
-      <c r="H106" s="17">
-        <v>34053.597003711002</v>
-      </c>
-      <c r="I106" s="17">
-        <v>31064.538930922001</v>
-      </c>
-      <c r="J106" s="17">
-        <v>37563.804992111</v>
-      </c>
-      <c r="K106" s="17">
-        <v>51190.346872059999</v>
-      </c>
-      <c r="L106" s="17">
-        <v>57268.695746375997</v>
-      </c>
-    </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B107" s="18" t="s">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="18" t="s">
         <v>126</v>
       </c>
+      <c r="B107" s="18">
+        <v>28146.351709039001</v>
+      </c>
       <c r="C107" s="18">
-        <v>28146.351709039001</v>
+        <v>28601.997800456</v>
       </c>
       <c r="D107" s="18">
+        <v>29315.353320260001</v>
+      </c>
+      <c r="E107" s="18">
         <v>28601.997800456</v>
       </c>
-      <c r="E107" s="18">
-        <v>29315.353320260001</v>
-      </c>
       <c r="F107" s="18">
-        <v>28601.997800456</v>
+        <v>31004.996159999999</v>
       </c>
       <c r="G107" s="18">
         <v>31004.996159999999</v>
@@ -5392,25 +5392,25 @@
       <c r="K107" s="18">
         <v>31004.996159999999</v>
       </c>
-      <c r="L107" s="18">
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B108" s="18">
+        <v>28146.351709039001</v>
+      </c>
+      <c r="C108" s="18">
+        <v>28601.997800456</v>
+      </c>
+      <c r="D108" s="18">
+        <v>29315.353320260001</v>
+      </c>
+      <c r="E108" s="18">
+        <v>28601.997800456</v>
+      </c>
+      <c r="F108" s="18">
         <v>31004.996159999999</v>
-      </c>
-    </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B108" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C108" s="18">
-        <v>28146.351709039001</v>
-      </c>
-      <c r="D108" s="18">
-        <v>28601.997800456</v>
-      </c>
-      <c r="E108" s="18">
-        <v>29315.353320260001</v>
-      </c>
-      <c r="F108" s="18">
-        <v>28601.997800456</v>
       </c>
       <c r="G108" s="18">
         <v>31004.996159999999</v>
@@ -5427,14 +5427,14 @@
       <c r="K108" s="18">
         <v>31004.996159999999</v>
       </c>
-      <c r="L108" s="18">
-        <v>31004.996159999999</v>
-      </c>
-    </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B109" s="18" t="s">
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="18" t="s">
         <v>128</v>
       </c>
+      <c r="B109" s="18">
+        <v>0</v>
+      </c>
       <c r="C109" s="18">
         <v>0</v>
       </c>
@@ -5462,14 +5462,14 @@
       <c r="K109" s="18">
         <v>0</v>
       </c>
-      <c r="L109" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B110" s="18" t="s">
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="18" t="s">
         <v>129</v>
       </c>
+      <c r="B110" s="18">
+        <v>0</v>
+      </c>
       <c r="C110" s="18">
         <v>0</v>
       </c>
@@ -5497,14 +5497,14 @@
       <c r="K110" s="18">
         <v>0</v>
       </c>
-      <c r="L110" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B111" s="18" t="s">
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="18" t="s">
         <v>130</v>
       </c>
+      <c r="B111" s="18">
+        <v>0</v>
+      </c>
       <c r="C111" s="18">
         <v>0</v>
       </c>
@@ -5532,14 +5532,14 @@
       <c r="K111" s="18">
         <v>0</v>
       </c>
-      <c r="L111" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B112" s="18" t="s">
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="18" t="s">
         <v>131</v>
       </c>
+      <c r="B112" s="18">
+        <v>0</v>
+      </c>
       <c r="C112" s="18">
         <v>0</v>
       </c>
@@ -5567,14 +5567,14 @@
       <c r="K112" s="18">
         <v>0</v>
       </c>
-      <c r="L112" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B113" s="18" t="s">
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="18" t="s">
         <v>132</v>
       </c>
+      <c r="B113" s="18">
+        <v>0</v>
+      </c>
       <c r="C113" s="18">
         <v>0</v>
       </c>
@@ -5602,14 +5602,14 @@
       <c r="K113" s="18">
         <v>0</v>
       </c>
-      <c r="L113" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B114" s="18" t="s">
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="18" t="s">
         <v>133</v>
       </c>
+      <c r="B114" s="18">
+        <v>0</v>
+      </c>
       <c r="C114" s="18">
         <v>0</v>
       </c>
@@ -5637,14 +5637,14 @@
       <c r="K114" s="18">
         <v>0</v>
       </c>
-      <c r="L114" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B115" s="18" t="s">
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="18" t="s">
         <v>134</v>
       </c>
+      <c r="B115" s="18">
+        <v>0</v>
+      </c>
       <c r="C115" s="18">
         <v>0</v>
       </c>
@@ -5672,25 +5672,25 @@
       <c r="K115" s="18">
         <v>0</v>
       </c>
-      <c r="L115" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B116" s="18" t="s">
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="18" t="s">
         <v>135</v>
       </c>
+      <c r="B116" s="18">
+        <v>66.551911923000006</v>
+      </c>
       <c r="C116" s="18">
-        <v>66.551911923000006</v>
+        <v>1553.551911923</v>
       </c>
       <c r="D116" s="18">
-        <v>1553.551911923</v>
+        <v>3365.070184705</v>
       </c>
       <c r="E116" s="18">
-        <v>3365.070184705</v>
+        <v>5596.0701847050004</v>
       </c>
       <c r="F116" s="18">
-        <v>5596.0701847050004</v>
+        <v>2.4404349750000001</v>
       </c>
       <c r="G116" s="18">
         <v>2.4404349750000001</v>
@@ -5702,19 +5702,19 @@
         <v>2.4404349750000001</v>
       </c>
       <c r="J116" s="18">
-        <v>2.4404349750000001</v>
+        <v>5598.7607400799998</v>
       </c>
       <c r="K116" s="18">
-        <v>5598.7607400799998</v>
-      </c>
-      <c r="L116" s="18">
         <v>10047.967778589</v>
       </c>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B117" s="18" t="s">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="18" t="s">
         <v>136</v>
       </c>
+      <c r="B117" s="18">
+        <v>0</v>
+      </c>
       <c r="C117" s="18">
         <v>0</v>
       </c>
@@ -5742,14 +5742,12 @@
       <c r="K117" s="18">
         <v>0</v>
       </c>
-      <c r="L117" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B118" s="18" t="s">
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="18" t="s">
         <v>137</v>
       </c>
+      <c r="B118" s="18"/>
       <c r="C118" s="18"/>
       <c r="D118" s="18"/>
       <c r="E118" s="18"/>
@@ -5759,17 +5757,19 @@
       <c r="I118" s="18"/>
       <c r="J118" s="18"/>
       <c r="K118" s="18"/>
-      <c r="L118" s="18"/>
-    </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B119" s="18" t="s">
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="18" t="s">
         <v>138</v>
+      </c>
+      <c r="B119" s="18">
+        <v>0.123715583</v>
       </c>
       <c r="C119" s="18">
         <v>0.123715583</v>
       </c>
       <c r="D119" s="18">
-        <v>0.123715583</v>
+        <v>0.106709914</v>
       </c>
       <c r="E119" s="18">
         <v>0.106709914</v>
@@ -5792,226 +5792,226 @@
       <c r="K119" s="18">
         <v>0.106709914</v>
       </c>
-      <c r="L119" s="18">
-        <v>0.106709914</v>
-      </c>
-    </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B120" s="18" t="s">
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="18" t="s">
         <v>139</v>
       </c>
+      <c r="B120" s="18">
+        <v>-1159.178037332</v>
+      </c>
       <c r="C120" s="18">
-        <v>-1159.178037332</v>
+        <v>1367.4531006940001</v>
       </c>
       <c r="D120" s="18">
-        <v>1367.4531006940001</v>
+        <v>-2.9466344059999998</v>
       </c>
       <c r="E120" s="18">
+        <v>-6.3383664289999997</v>
+      </c>
+      <c r="F120" s="18">
+        <v>256.26187509200003</v>
+      </c>
+      <c r="G120" s="18">
+        <v>2975.0580510149998</v>
+      </c>
+      <c r="H120" s="18">
+        <v>27.902497446000002</v>
+      </c>
+      <c r="I120" s="18">
+        <v>6562.1738211680004</v>
+      </c>
+      <c r="J120" s="18">
+        <v>14651.541651825</v>
+      </c>
+      <c r="K120" s="18">
+        <v>16340.184316581001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B121" s="18">
+        <v>-1288.672616586</v>
+      </c>
+      <c r="C121" s="18">
+        <v>-701.25566610500005</v>
+      </c>
+      <c r="D121" s="18">
+        <v>1.401688743</v>
+      </c>
+      <c r="E121" s="18">
         <v>-2.9466344059999998</v>
       </c>
-      <c r="F120" s="18">
-        <v>-6.3383664289999997</v>
-      </c>
-      <c r="G120" s="18">
-        <v>256.26187509200003</v>
-      </c>
-      <c r="H120" s="18">
-        <v>2975.0580510149998</v>
-      </c>
-      <c r="I120" s="18">
-        <v>27.902497446000002</v>
-      </c>
-      <c r="J120" s="18">
-        <v>6562.1738211680004</v>
-      </c>
-      <c r="K120" s="18">
-        <v>14651.541651825</v>
-      </c>
-      <c r="L120" s="18">
-        <v>16340.184316581001</v>
-      </c>
-    </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B121" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C121" s="18">
-        <v>-1288.672616586</v>
-      </c>
-      <c r="D121" s="18">
-        <v>-701.25566610500005</v>
-      </c>
-      <c r="E121" s="18">
-        <v>1.401688743</v>
-      </c>
       <c r="F121" s="18">
-        <v>-2.9466344059999998</v>
+        <v>48.827439761000001</v>
       </c>
       <c r="G121" s="18">
-        <v>48.827439761000001</v>
+        <v>183.35718315099999</v>
       </c>
       <c r="H121" s="18">
-        <v>183.35718315099999</v>
+        <v>2847.992932613</v>
       </c>
       <c r="I121" s="18">
-        <v>2847.992932613</v>
+        <v>24.807327235999999</v>
       </c>
       <c r="J121" s="18">
-        <v>24.807327235999999</v>
+        <v>-73.126542756999996</v>
       </c>
       <c r="K121" s="18">
-        <v>-73.126542756999996</v>
-      </c>
-      <c r="L121" s="18">
         <v>7691.9128332279997</v>
       </c>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B122" s="18" t="s">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="18" t="s">
         <v>141</v>
       </c>
+      <c r="B122" s="18">
+        <v>129.494579254</v>
+      </c>
       <c r="C122" s="18">
-        <v>129.494579254</v>
+        <v>2068.7087667989999</v>
       </c>
       <c r="D122" s="18">
-        <v>2068.7087667989999</v>
+        <v>-4.3483231489999996</v>
       </c>
       <c r="E122" s="18">
-        <v>-4.3483231489999996</v>
+        <v>-3.3917320229999999</v>
       </c>
       <c r="F122" s="18">
-        <v>-3.3917320229999999</v>
+        <v>207.434435331</v>
       </c>
       <c r="G122" s="18">
-        <v>207.434435331</v>
+        <v>2791.700867864</v>
       </c>
       <c r="H122" s="18">
-        <v>2791.700867864</v>
+        <v>-2820.0904351670001</v>
       </c>
       <c r="I122" s="18">
-        <v>-2820.0904351670001</v>
+        <v>6537.3664939319997</v>
       </c>
       <c r="J122" s="18">
-        <v>6537.3664939319997</v>
+        <v>14724.668194582</v>
       </c>
       <c r="K122" s="18">
-        <v>14724.668194582</v>
-      </c>
-      <c r="L122" s="18">
         <v>8648.2714833530008</v>
       </c>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B123" s="18" t="s">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="18" t="s">
         <v>142</v>
       </c>
+      <c r="B123" s="18">
+        <v>288.91029910700001</v>
+      </c>
       <c r="C123" s="18">
-        <v>288.91029910700001</v>
+        <v>223.593742873</v>
       </c>
       <c r="D123" s="18">
-        <v>223.593742873</v>
+        <v>206.26624502300001</v>
       </c>
       <c r="E123" s="18">
-        <v>206.26624502300001</v>
+        <v>165.96840654299999</v>
       </c>
       <c r="F123" s="18">
-        <v>165.96840654299999</v>
+        <v>113.741149859</v>
       </c>
       <c r="G123" s="18">
-        <v>113.741149859</v>
+        <v>70.995647806999997</v>
       </c>
       <c r="H123" s="18">
-        <v>70.995647806999997</v>
+        <v>29.093128586999999</v>
       </c>
       <c r="I123" s="18">
-        <v>29.093128586999999</v>
+        <v>-5.912133946</v>
       </c>
       <c r="J123" s="18">
-        <v>-5.912133946</v>
+        <v>-65.058389758999994</v>
       </c>
       <c r="K123" s="18">
-        <v>-65.058389758999994</v>
-      </c>
-      <c r="L123" s="18">
         <v>-124.559218708</v>
       </c>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B124" s="17" t="s">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="17" t="s">
         <v>143</v>
       </c>
+      <c r="B124" s="17">
+        <v>0.35052832</v>
+      </c>
       <c r="C124" s="17">
+        <v>0</v>
+      </c>
+      <c r="D124" s="17">
+        <v>0</v>
+      </c>
+      <c r="E124" s="17">
+        <v>0</v>
+      </c>
+      <c r="F124" s="17">
+        <v>0</v>
+      </c>
+      <c r="G124" s="17">
+        <v>0</v>
+      </c>
+      <c r="H124" s="17">
+        <v>0</v>
+      </c>
+      <c r="I124" s="17">
+        <v>0</v>
+      </c>
+      <c r="J124" s="17">
+        <v>0</v>
+      </c>
+      <c r="K124" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B125" s="18">
+        <v>0</v>
+      </c>
+      <c r="C125" s="18">
+        <v>0</v>
+      </c>
+      <c r="D125" s="18">
+        <v>0</v>
+      </c>
+      <c r="E125" s="18">
+        <v>0</v>
+      </c>
+      <c r="F125" s="18">
+        <v>0</v>
+      </c>
+      <c r="G125" s="18">
+        <v>0</v>
+      </c>
+      <c r="H125" s="18">
+        <v>0</v>
+      </c>
+      <c r="I125" s="18">
+        <v>0</v>
+      </c>
+      <c r="J125" s="18">
+        <v>0</v>
+      </c>
+      <c r="K125" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B126" s="18">
         <v>0.35052832</v>
       </c>
-      <c r="D124" s="17">
-        <v>0</v>
-      </c>
-      <c r="E124" s="17">
-        <v>0</v>
-      </c>
-      <c r="F124" s="17">
-        <v>0</v>
-      </c>
-      <c r="G124" s="17">
-        <v>0</v>
-      </c>
-      <c r="H124" s="17">
-        <v>0</v>
-      </c>
-      <c r="I124" s="17">
-        <v>0</v>
-      </c>
-      <c r="J124" s="17">
-        <v>0</v>
-      </c>
-      <c r="K124" s="17">
-        <v>0</v>
-      </c>
-      <c r="L124" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B125" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C125" s="18">
-        <v>0</v>
-      </c>
-      <c r="D125" s="18">
-        <v>0</v>
-      </c>
-      <c r="E125" s="18">
-        <v>0</v>
-      </c>
-      <c r="F125" s="18">
-        <v>0</v>
-      </c>
-      <c r="G125" s="18">
-        <v>0</v>
-      </c>
-      <c r="H125" s="18">
-        <v>0</v>
-      </c>
-      <c r="I125" s="18">
-        <v>0</v>
-      </c>
-      <c r="J125" s="18">
-        <v>0</v>
-      </c>
-      <c r="K125" s="18">
-        <v>0</v>
-      </c>
-      <c r="L125" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B126" s="18" t="s">
-        <v>145</v>
-      </c>
       <c r="C126" s="18">
-        <v>0.35052832</v>
+        <v>0</v>
       </c>
       <c r="D126" s="18">
         <v>0</v>
@@ -6037,14 +6037,14 @@
       <c r="K126" s="18">
         <v>0</v>
       </c>
-      <c r="L126" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B127" s="18" t="s">
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="18" t="s">
         <v>146</v>
       </c>
+      <c r="B127" s="18">
+        <v>0</v>
+      </c>
       <c r="C127" s="18">
         <v>0</v>
       </c>
@@ -6072,14 +6072,14 @@
       <c r="K127" s="18">
         <v>0</v>
       </c>
-      <c r="L127" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B128" s="18" t="s">
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="18" t="s">
         <v>147</v>
       </c>
+      <c r="B128" s="18">
+        <v>0</v>
+      </c>
       <c r="C128" s="18">
         <v>0</v>
       </c>
@@ -6107,46 +6107,44 @@
       <c r="K128" s="18">
         <v>0</v>
       </c>
-      <c r="L128" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B129" s="17" t="s">
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="17" t="s">
         <v>148</v>
       </c>
+      <c r="B129" s="17">
+        <v>81156.799304155007</v>
+      </c>
       <c r="C129" s="17">
-        <v>81156.799304155007</v>
+        <v>59923.710596133998</v>
       </c>
       <c r="D129" s="17">
-        <v>59923.710596133998</v>
+        <v>63181.382122902003</v>
       </c>
       <c r="E129" s="17">
-        <v>63181.382122902003</v>
+        <v>63260.794448651002</v>
       </c>
       <c r="F129" s="17">
-        <v>63260.794448651002</v>
+        <v>53211.604809680997</v>
       </c>
       <c r="G129" s="17">
-        <v>53211.604809680997</v>
+        <v>53583.992996059002</v>
       </c>
       <c r="H129" s="17">
-        <v>53583.992996059002</v>
+        <v>55894.934071073003</v>
       </c>
       <c r="I129" s="17">
-        <v>55894.934071073003</v>
+        <v>66795.662728648997</v>
       </c>
       <c r="J129" s="17">
-        <v>66795.662728648997</v>
+        <v>78487.929061849994</v>
       </c>
       <c r="K129" s="17">
-        <v>78487.929061849994</v>
-      </c>
-      <c r="L129" s="17">
         <v>86594.660994410006</v>
       </c>
     </row>
-    <row r="131" spans="2:12" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
@@ -6156,9 +6154,9 @@
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
-      <c r="K131" s="5"/>
-    </row>
-    <row r="132" spans="2:12" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
@@ -6168,9 +6166,9 @@
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
-      <c r="K132" s="5"/>
-    </row>
-    <row r="133" spans="2:12" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -6180,9 +6178,9 @@
       <c r="H133" s="6"/>
       <c r="I133" s="6"/>
       <c r="J133" s="6"/>
-      <c r="K133" s="6"/>
-    </row>
-    <row r="134" spans="2:12" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -6192,10 +6190,10 @@
       <c r="H134" s="6"/>
       <c r="I134" s="6"/>
       <c r="J134" s="6"/>
-      <c r="K134" s="6"/>
-    </row>
-    <row r="135" spans="2:12" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B135" s="1"/>
+    </row>
+    <row r="135" spans="1:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
@@ -6204,10 +6202,10 @@
       <c r="H135" s="9"/>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
-      <c r="K135" s="9"/>
-    </row>
-    <row r="136" spans="2:12" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="2:12" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
@@ -6217,9 +6215,9 @@
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
-      <c r="K137" s="5"/>
-    </row>
-    <row r="138" spans="2:12" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
@@ -6229,10 +6227,10 @@
       <c r="H138" s="6"/>
       <c r="I138" s="6"/>
       <c r="J138" s="6"/>
-      <c r="K138" s="6"/>
-    </row>
-    <row r="139" spans="2:12" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B139" s="1"/>
+    </row>
+    <row r="139" spans="1:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="B139" s="9"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
@@ -6241,7 +6239,6 @@
       <c r="H139" s="9"/>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
-      <c r="K139" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15064,6 +15061,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007CEE3B9C5488B34E9CE3D8D8035958D8" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="75060c2618d2ae9b8ac1d0e78eb1eb93">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="924f728f-4100-4632-8e1e-fad03c81615e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02bc83fd7de3a4f06af8e0fdb21faaf5" ns2:_="">
     <xsd:import namespace="924f728f-4100-4632-8e1e-fad03c81615e"/>
@@ -15209,12 +15212,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -15225,6 +15222,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DB89ADE-9B06-43F8-A6F2-17CB6959076F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBB6D36F-642E-420F-9295-C7576656C215}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15242,15 +15248,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DB89ADE-9B06-43F8-A6F2-17CB6959076F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84FB2EE1-5D43-46C3-952E-3886316A1C4D}">
   <ds:schemaRefs>
